--- a/raw_data/20200818_saline/20200818_Sensor2_Test_71.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_71.xlsx
@@ -1,688 +1,1104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0731C6FC-FB86-4A1B-B348-F5E2DF2B2090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>63373.876329</v>
+        <v>63373.876328999999</v>
       </c>
       <c r="B2" s="1">
-        <v>17.603855</v>
+        <v>17.603854999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1243.020000</v>
+        <v>1243.02</v>
       </c>
       <c r="D2" s="1">
-        <v>-311.378000</v>
+        <v>-311.37799999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>63383.990252</v>
+        <v>63383.990252000003</v>
       </c>
       <c r="G2" s="1">
-        <v>17.606664</v>
+        <v>17.606663999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1268.000000</v>
+        <v>1268</v>
       </c>
       <c r="I2" s="1">
-        <v>-269.010000</v>
+        <v>-269.01</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>63394.180062</v>
+        <v>63394.180061999999</v>
       </c>
       <c r="L2" s="1">
-        <v>17.609494</v>
+        <v>17.609494000000002</v>
       </c>
       <c r="M2" s="1">
-        <v>1306.350000</v>
+        <v>1306.3499999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-205.997000</v>
+        <v>-205.99700000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>63404.341601</v>
       </c>
       <c r="Q2" s="1">
-        <v>17.612317</v>
+        <v>17.612317000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1318.520000</v>
+        <v>1318.52</v>
       </c>
       <c r="S2" s="1">
-        <v>-187.606000</v>
+        <v>-187.60599999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>63414.608819</v>
+        <v>63414.608819000001</v>
       </c>
       <c r="V2" s="1">
-        <v>17.615169</v>
+        <v>17.615169000000002</v>
       </c>
       <c r="W2" s="1">
-        <v>1332.100000</v>
+        <v>1332.1</v>
       </c>
       <c r="X2" s="1">
-        <v>-173.804000</v>
+        <v>-173.804</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>63424.715269</v>
       </c>
       <c r="AA2" s="1">
-        <v>17.617976</v>
+        <v>17.617975999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1350.010000</v>
+        <v>1350.01</v>
       </c>
       <c r="AC2" s="1">
-        <v>-171.122000</v>
+        <v>-171.12200000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>63435.308860</v>
+        <v>63435.308859999997</v>
       </c>
       <c r="AF2" s="1">
-        <v>17.620919</v>
+        <v>17.620919000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1363.280000</v>
+        <v>1363.28</v>
       </c>
       <c r="AH2" s="1">
-        <v>-180.670000</v>
+        <v>-180.67</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>63445.751595</v>
+        <v>63445.751595000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>17.623820</v>
+        <v>17.623819999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>1384.530000</v>
+        <v>1384.53</v>
       </c>
       <c r="AM2" s="1">
-        <v>-210.196000</v>
+        <v>-210.196</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>63456.397724</v>
+        <v>63456.397724000002</v>
       </c>
       <c r="AP2" s="1">
-        <v>17.626777</v>
+        <v>17.626777000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1406.800000</v>
+        <v>1406.8</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.603000</v>
+        <v>-253.60300000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>63467.397501</v>
+        <v>63467.397500999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>17.629833</v>
+        <v>17.629833000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1432.100000</v>
+        <v>1432.1</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.914000</v>
+        <v>-312.91399999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>63478.555502</v>
+        <v>63478.555502000003</v>
       </c>
       <c r="AZ2" s="1">
         <v>17.632932</v>
       </c>
       <c r="BA2" s="1">
-        <v>1451.930000</v>
+        <v>1451.93</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.406000</v>
+        <v>-364.40600000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>63489.561231</v>
       </c>
       <c r="BE2" s="1">
-        <v>17.635989</v>
+        <v>17.635988999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1538.900000</v>
+        <v>1538.9</v>
       </c>
       <c r="BG2" s="1">
-        <v>-609.458000</v>
+        <v>-609.45799999999997</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>63500.506981</v>
+        <v>63500.506980999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>17.639030</v>
+        <v>17.639030000000002</v>
       </c>
       <c r="BK2" s="1">
-        <v>1695.390000</v>
+        <v>1695.39</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1047.530000</v>
+        <v>-1047.53</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>63511.856402</v>
+        <v>63511.856401999998</v>
       </c>
       <c r="BO2" s="1">
-        <v>17.642182</v>
+        <v>17.642181999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1992.480000</v>
+        <v>1992.48</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1803.640000</v>
+        <v>-1803.64</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>63522.188597</v>
@@ -691,135 +1107,135 @@
         <v>17.645052</v>
       </c>
       <c r="BU2" s="1">
-        <v>2381.170000</v>
+        <v>2381.17</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2670.650000</v>
+        <v>-2670.65</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>63532.950295</v>
+        <v>63532.950295000002</v>
       </c>
       <c r="BY2" s="1">
         <v>17.648042</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2866.350000</v>
+        <v>2866.35</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3617.110000</v>
+        <v>-3617.11</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>63543.976825</v>
+        <v>63543.976824999998</v>
       </c>
       <c r="CD2" s="1">
-        <v>17.651105</v>
+        <v>17.651105000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>4284.630000</v>
+        <v>4284.63</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5879.710000</v>
+        <v>-5879.71</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>63374.249818</v>
+        <v>63374.249817999997</v>
       </c>
       <c r="B3" s="1">
-        <v>17.603958</v>
+        <v>17.603957999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1243.010000</v>
+        <v>1243.01</v>
       </c>
       <c r="D3" s="1">
-        <v>-310.851000</v>
+        <v>-310.851</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>63384.337452</v>
       </c>
       <c r="G3" s="1">
-        <v>17.606760</v>
+        <v>17.606760000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1269.370000</v>
+        <v>1269.3699999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-268.933000</v>
+        <v>-268.93299999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>63394.522301</v>
+        <v>63394.522300999997</v>
       </c>
       <c r="L3" s="1">
-        <v>17.609590</v>
+        <v>17.609590000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1306.120000</v>
+        <v>1306.1199999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-206.155000</v>
+        <v>-206.155</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>63404.725042</v>
+        <v>63404.725041999998</v>
       </c>
       <c r="Q3" s="1">
-        <v>17.612424</v>
+        <v>17.612424000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1318.560000</v>
+        <v>1318.56</v>
       </c>
       <c r="S3" s="1">
-        <v>-187.624000</v>
+        <v>-187.624</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>63415.039812</v>
+        <v>63415.039812000003</v>
       </c>
       <c r="V3" s="1">
-        <v>17.615289</v>
+        <v>17.615289000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1332.160000</v>
+        <v>1332.16</v>
       </c>
       <c r="X3" s="1">
-        <v>-173.752000</v>
+        <v>-173.75200000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>63425.132901</v>
+        <v>63425.132900999997</v>
       </c>
       <c r="AA3" s="1">
-        <v>17.618092</v>
+        <v>17.618092000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1349.790000</v>
+        <v>1349.79</v>
       </c>
       <c r="AC3" s="1">
-        <v>-171.161000</v>
+        <v>-171.161</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>63435.704134</v>
@@ -828,497 +1244,497 @@
         <v>17.621029</v>
       </c>
       <c r="AG3" s="1">
-        <v>1363.250000</v>
+        <v>1363.25</v>
       </c>
       <c r="AH3" s="1">
-        <v>-180.672000</v>
+        <v>-180.672</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>63446.165257</v>
+        <v>63446.165257000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>17.623935</v>
+        <v>17.623934999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1384.540000</v>
+        <v>1384.54</v>
       </c>
       <c r="AM3" s="1">
-        <v>-210.189000</v>
+        <v>-210.18899999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>63456.783642</v>
+        <v>63456.783642000002</v>
       </c>
       <c r="AP3" s="1">
         <v>17.626884</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1406.850000</v>
+        <v>1406.85</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.608000</v>
+        <v>-253.608</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>63467.766543</v>
+        <v>63467.766542999998</v>
       </c>
       <c r="AU3" s="1">
         <v>17.629935</v>
       </c>
       <c r="AV3" s="1">
-        <v>1432.110000</v>
+        <v>1432.11</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.927000</v>
+        <v>-312.92700000000002</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>63478.975119</v>
+        <v>63478.975119000002</v>
       </c>
       <c r="AZ3" s="1">
         <v>17.633049</v>
       </c>
       <c r="BA3" s="1">
-        <v>1451.860000</v>
+        <v>1451.86</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.407000</v>
+        <v>-364.40699999999998</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>63490.315150</v>
+        <v>63490.315150000002</v>
       </c>
       <c r="BE3" s="1">
-        <v>17.636199</v>
+        <v>17.636199000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1538.900000</v>
+        <v>1538.9</v>
       </c>
       <c r="BG3" s="1">
-        <v>-609.467000</v>
+        <v>-609.46699999999998</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>63500.912177</v>
+        <v>63500.912176999998</v>
       </c>
       <c r="BJ3" s="1">
         <v>17.639142</v>
       </c>
       <c r="BK3" s="1">
-        <v>1695.300000</v>
+        <v>1695.3</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1047.550000</v>
+        <v>-1047.55</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>63512.264610</v>
+        <v>63512.264609999998</v>
       </c>
       <c r="BO3" s="1">
-        <v>17.642296</v>
+        <v>17.642296000000002</v>
       </c>
       <c r="BP3" s="1">
-        <v>1992.280000</v>
+        <v>1992.28</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1803.820000</v>
+        <v>-1803.82</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>63522.669220</v>
+        <v>63522.669220000003</v>
       </c>
       <c r="BT3" s="1">
-        <v>17.645186</v>
+        <v>17.645185999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>2380.870000</v>
+        <v>2380.87</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2670.820000</v>
+        <v>-2670.82</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>63533.739893</v>
+        <v>63533.739892999998</v>
       </c>
       <c r="BY3" s="1">
-        <v>17.648261</v>
+        <v>17.648261000000002</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2866.060000</v>
+        <v>2866.06</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3616.710000</v>
+        <v>-3616.71</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>63544.858247</v>
+        <v>63544.858246999996</v>
       </c>
       <c r="CD3" s="1">
-        <v>17.651350</v>
+        <v>17.651350000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>4285.940000</v>
+        <v>4285.9399999999996</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5882.220000</v>
+        <v>-5882.22</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>63374.592584</v>
+        <v>63374.592583999998</v>
       </c>
       <c r="B4" s="1">
         <v>17.604053</v>
       </c>
       <c r="C4" s="1">
-        <v>1243.090000</v>
+        <v>1243.0899999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-311.268000</v>
+        <v>-311.26799999999997</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>63384.678700</v>
+        <v>63384.678699999997</v>
       </c>
       <c r="G4" s="1">
-        <v>17.606855</v>
+        <v>17.606854999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1269.620000</v>
+        <v>1269.6199999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-269.217000</v>
+        <v>-269.21699999999998</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>63394.871981</v>
+        <v>63394.871980999997</v>
       </c>
       <c r="L4" s="1">
-        <v>17.609687</v>
+        <v>17.609687000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1306.010000</v>
+        <v>1306.01</v>
       </c>
       <c r="N4" s="1">
-        <v>-206.074000</v>
+        <v>-206.07400000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>63405.164022</v>
+        <v>63405.164021999997</v>
       </c>
       <c r="Q4" s="1">
-        <v>17.612546</v>
+        <v>17.612545999999998</v>
       </c>
       <c r="R4" s="1">
-        <v>1318.540000</v>
+        <v>1318.54</v>
       </c>
       <c r="S4" s="1">
-        <v>-187.673000</v>
+        <v>-187.673</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>63415.336946</v>
+        <v>63415.336946000003</v>
       </c>
       <c r="V4" s="1">
         <v>17.615371</v>
       </c>
       <c r="W4" s="1">
-        <v>1332.000000</v>
+        <v>1332</v>
       </c>
       <c r="X4" s="1">
-        <v>-173.765000</v>
+        <v>-173.76499999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>63425.476132</v>
+        <v>63425.476132000003</v>
       </c>
       <c r="AA4" s="1">
         <v>17.618188</v>
       </c>
       <c r="AB4" s="1">
-        <v>1349.910000</v>
+        <v>1349.91</v>
       </c>
       <c r="AC4" s="1">
-        <v>-171.198000</v>
+        <v>-171.19800000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>63436.046376</v>
+        <v>63436.046375999998</v>
       </c>
       <c r="AF4" s="1">
-        <v>17.621124</v>
+        <v>17.621123999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>1363.170000</v>
+        <v>1363.17</v>
       </c>
       <c r="AH4" s="1">
-        <v>-180.596000</v>
+        <v>-180.596</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>63446.554122</v>
+        <v>63446.554122000001</v>
       </c>
       <c r="AK4" s="1">
         <v>17.624043</v>
       </c>
       <c r="AL4" s="1">
-        <v>1384.540000</v>
+        <v>1384.54</v>
       </c>
       <c r="AM4" s="1">
-        <v>-210.185000</v>
+        <v>-210.185</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>63457.143212</v>
+        <v>63457.143212000003</v>
       </c>
       <c r="AP4" s="1">
         <v>17.626984</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1406.820000</v>
+        <v>1406.82</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.560000</v>
+        <v>-253.56</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>63468.497131</v>
+        <v>63468.497130999996</v>
       </c>
       <c r="AU4" s="1">
-        <v>17.630138</v>
+        <v>17.630137999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1432.070000</v>
+        <v>1432.07</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.907000</v>
+        <v>-312.90699999999998</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>63479.710190</v>
+        <v>63479.710189999998</v>
       </c>
       <c r="AZ4" s="1">
         <v>17.633253</v>
       </c>
       <c r="BA4" s="1">
-        <v>1451.920000</v>
+        <v>1451.92</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.364000</v>
+        <v>-364.36399999999998</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>63490.676240</v>
+        <v>63490.676240000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>17.636299</v>
+        <v>17.636299000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1538.890000</v>
+        <v>1538.89</v>
       </c>
       <c r="BG4" s="1">
-        <v>-609.460000</v>
+        <v>-609.46</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>63501.286656</v>
+        <v>63501.286655999997</v>
       </c>
       <c r="BJ4" s="1">
         <v>17.639246</v>
       </c>
       <c r="BK4" s="1">
-        <v>1695.290000</v>
+        <v>1695.29</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1047.580000</v>
+        <v>-1047.58</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>63512.677779</v>
+        <v>63512.677778999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>17.642410</v>
+        <v>17.642410000000002</v>
       </c>
       <c r="BP4" s="1">
-        <v>1992.260000</v>
+        <v>1992.26</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1803.770000</v>
+        <v>-1803.77</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>63523.412195</v>
+        <v>63523.412194999997</v>
       </c>
       <c r="BT4" s="1">
-        <v>17.645392</v>
+        <v>17.645392000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>2380.560000</v>
+        <v>2380.56</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2670.800000</v>
+        <v>-2670.8</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>63533.893158</v>
+        <v>63533.893157999999</v>
       </c>
       <c r="BY4" s="1">
         <v>17.648304</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2865.290000</v>
+        <v>2865.29</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3617.370000</v>
+        <v>-3617.37</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>63545.064055</v>
+        <v>63545.064055000003</v>
       </c>
       <c r="CD4" s="1">
-        <v>17.651407</v>
+        <v>17.651406999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>4282.320000</v>
+        <v>4282.32</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5865.040000</v>
+        <v>-5865.04</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>63374.930327</v>
+        <v>63374.930327000002</v>
       </c>
       <c r="B5" s="1">
-        <v>17.604147</v>
+        <v>17.604147000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1243.480000</v>
+        <v>1243.48</v>
       </c>
       <c r="D5" s="1">
-        <v>-310.878000</v>
+        <v>-310.87799999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>63385.115674</v>
+        <v>63385.115674000001</v>
       </c>
       <c r="G5" s="1">
-        <v>17.606977</v>
+        <v>17.606977000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1269.230000</v>
+        <v>1269.23</v>
       </c>
       <c r="I5" s="1">
-        <v>-269.008000</v>
+        <v>-269.00799999999998</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>63395.302012</v>
       </c>
       <c r="L5" s="1">
-        <v>17.609806</v>
+        <v>17.609805999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1306.140000</v>
+        <v>1306.1400000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-205.894000</v>
+        <v>-205.89400000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>63405.445695</v>
+        <v>63405.445695000002</v>
       </c>
       <c r="Q5" s="1">
         <v>17.612624</v>
       </c>
       <c r="R5" s="1">
-        <v>1318.480000</v>
+        <v>1318.48</v>
       </c>
       <c r="S5" s="1">
-        <v>-187.703000</v>
+        <v>-187.703</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>63415.677698</v>
       </c>
       <c r="V5" s="1">
-        <v>17.615466</v>
+        <v>17.615466000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1332.100000</v>
+        <v>1332.1</v>
       </c>
       <c r="X5" s="1">
-        <v>-173.670000</v>
+        <v>-173.67</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>63425.826341</v>
@@ -1327,133 +1743,133 @@
         <v>17.618285</v>
       </c>
       <c r="AB5" s="1">
-        <v>1349.920000</v>
+        <v>1349.92</v>
       </c>
       <c r="AC5" s="1">
-        <v>-171.126000</v>
+        <v>-171.126</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>63436.389607</v>
+        <v>63436.389606999997</v>
       </c>
       <c r="AF5" s="1">
         <v>17.621219</v>
       </c>
       <c r="AG5" s="1">
-        <v>1363.100000</v>
+        <v>1363.1</v>
       </c>
       <c r="AH5" s="1">
-        <v>-180.516000</v>
+        <v>-180.51599999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>63447.236618</v>
+        <v>63447.236618000003</v>
       </c>
       <c r="AK5" s="1">
-        <v>17.624232</v>
+        <v>17.624231999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1384.540000</v>
+        <v>1384.54</v>
       </c>
       <c r="AM5" s="1">
-        <v>-210.192000</v>
+        <v>-210.19200000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>63457.871374</v>
+        <v>63457.871374000002</v>
       </c>
       <c r="AP5" s="1">
-        <v>17.627186</v>
+        <v>17.627185999999998</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1406.810000</v>
+        <v>1406.81</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.556000</v>
+        <v>-253.55600000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>63468.879051</v>
+        <v>63468.879051000004</v>
       </c>
       <c r="AU5" s="1">
-        <v>17.630244</v>
+        <v>17.630244000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1432.100000</v>
+        <v>1432.1</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.907000</v>
+        <v>-312.90699999999998</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>63480.042014</v>
+        <v>63480.042013999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>17.633345</v>
+        <v>17.633344999999998</v>
       </c>
       <c r="BA5" s="1">
-        <v>1451.930000</v>
+        <v>1451.93</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.428000</v>
+        <v>-364.428</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>63491.039610</v>
+        <v>63491.03961</v>
       </c>
       <c r="BE5" s="1">
-        <v>17.636400</v>
+        <v>17.636399999999998</v>
       </c>
       <c r="BF5" s="1">
-        <v>1538.890000</v>
+        <v>1538.89</v>
       </c>
       <c r="BG5" s="1">
-        <v>-609.459000</v>
+        <v>-609.45899999999995</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>63501.991471</v>
+        <v>63501.991471000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>17.639442</v>
+        <v>17.639441999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1695.260000</v>
+        <v>1695.26</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1047.610000</v>
+        <v>-1047.6099999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>63513.129632</v>
+        <v>63513.129631999996</v>
       </c>
       <c r="BO5" s="1">
         <v>17.642536</v>
       </c>
       <c r="BP5" s="1">
-        <v>1992.370000</v>
+        <v>1992.37</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1803.770000</v>
+        <v>-1803.77</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>63523.532754</v>
@@ -1462,120 +1878,120 @@
         <v>17.645426</v>
       </c>
       <c r="BU5" s="1">
-        <v>2380.780000</v>
+        <v>2380.7800000000002</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2670.820000</v>
+        <v>-2670.82</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>63534.319754</v>
+        <v>63534.319753999996</v>
       </c>
       <c r="BY5" s="1">
         <v>17.648422</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2865.190000</v>
+        <v>2865.19</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3616.930000</v>
+        <v>-3616.93</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>63545.580422</v>
+        <v>63545.580421999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>17.651550</v>
+        <v>17.65155</v>
       </c>
       <c r="CE5" s="1">
-        <v>4267.200000</v>
+        <v>4267.2</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5869.320000</v>
+        <v>-5869.32</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>63375.354904</v>
       </c>
       <c r="B6" s="1">
-        <v>17.604265</v>
+        <v>17.604265000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>1243.350000</v>
+        <v>1243.3499999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-311.091000</v>
+        <v>-311.09100000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>63385.393967</v>
+        <v>63385.393967000004</v>
       </c>
       <c r="G6" s="1">
-        <v>17.607054</v>
+        <v>17.607054000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>1268.280000</v>
+        <v>1268.28</v>
       </c>
       <c r="I6" s="1">
-        <v>-269.024000</v>
+        <v>-269.024</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>63395.578780</v>
+        <v>63395.578780000003</v>
       </c>
       <c r="L6" s="1">
         <v>17.609883</v>
       </c>
       <c r="M6" s="1">
-        <v>1306.410000</v>
+        <v>1306.4100000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-206.008000</v>
+        <v>-206.00800000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>63405.792894</v>
+        <v>63405.792893999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>17.612720</v>
+        <v>17.612719999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1318.380000</v>
+        <v>1318.38</v>
       </c>
       <c r="S6" s="1">
-        <v>-187.667000</v>
+        <v>-187.667</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>63416.020437</v>
+        <v>63416.020436999999</v>
       </c>
       <c r="V6" s="1">
         <v>17.615561</v>
       </c>
       <c r="W6" s="1">
-        <v>1332.020000</v>
+        <v>1332.02</v>
       </c>
       <c r="X6" s="1">
-        <v>-173.484000</v>
+        <v>-173.48400000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>63426.176516</v>
@@ -1584,739 +2000,739 @@
         <v>17.618382</v>
       </c>
       <c r="AB6" s="1">
-        <v>1349.860000</v>
+        <v>1349.86</v>
       </c>
       <c r="AC6" s="1">
-        <v>-171.156000</v>
+        <v>-171.15600000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>63437.079077</v>
+        <v>63437.079077000002</v>
       </c>
       <c r="AF6" s="1">
-        <v>17.621411</v>
+        <v>17.621410999999998</v>
       </c>
       <c r="AG6" s="1">
-        <v>1363.360000</v>
+        <v>1363.36</v>
       </c>
       <c r="AH6" s="1">
-        <v>-180.573000</v>
+        <v>-180.57300000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>63447.585801</v>
+        <v>63447.585801000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>17.624329</v>
+        <v>17.624328999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1384.540000</v>
+        <v>1384.54</v>
       </c>
       <c r="AM6" s="1">
-        <v>-210.208000</v>
+        <v>-210.208</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>63458.252266</v>
+        <v>63458.252266000003</v>
       </c>
       <c r="AP6" s="1">
-        <v>17.627292</v>
+        <v>17.627292000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1406.850000</v>
+        <v>1406.85</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.592000</v>
+        <v>-253.59200000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>63469.247082</v>
+        <v>63469.247082000002</v>
       </c>
       <c r="AU6" s="1">
-        <v>17.630346</v>
+        <v>17.630345999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1432.080000</v>
+        <v>1432.08</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.880000</v>
+        <v>-312.88</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>63480.708140</v>
+        <v>63480.708140000002</v>
       </c>
       <c r="AZ6" s="1">
-        <v>17.633530</v>
+        <v>17.63353</v>
       </c>
       <c r="BA6" s="1">
-        <v>1451.900000</v>
+        <v>1451.9</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.401000</v>
+        <v>-364.40100000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>63491.708910</v>
+        <v>63491.708910000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>17.636586</v>
+        <v>17.636586000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1538.870000</v>
+        <v>1538.87</v>
       </c>
       <c r="BG6" s="1">
-        <v>-609.446000</v>
+        <v>-609.44600000000003</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>63502.410095</v>
+        <v>63502.410094999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>17.639558</v>
+        <v>17.639558000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1695.220000</v>
+        <v>1695.22</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1047.600000</v>
+        <v>-1047.5999999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>63513.492209</v>
+        <v>63513.492209000004</v>
       </c>
       <c r="BO6" s="1">
-        <v>17.642637</v>
+        <v>17.642637000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1992.300000</v>
+        <v>1992.3</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1803.690000</v>
+        <v>-1803.69</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>63523.943906</v>
       </c>
       <c r="BT6" s="1">
-        <v>17.645540</v>
+        <v>17.64554</v>
       </c>
       <c r="BU6" s="1">
-        <v>2380.300000</v>
+        <v>2380.3000000000002</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2670.610000</v>
+        <v>-2670.61</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>63534.766621</v>
+        <v>63534.766621000002</v>
       </c>
       <c r="BY6" s="1">
         <v>17.648546</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2866.130000</v>
+        <v>2866.13</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3617.350000</v>
+        <v>-3617.35</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>63546.097221</v>
+        <v>63546.097221000004</v>
       </c>
       <c r="CD6" s="1">
-        <v>17.651694</v>
+        <v>17.651693999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>4271.630000</v>
+        <v>4271.63</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5883.210000</v>
+        <v>-5883.21</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>63375.632166</v>
+        <v>63375.632166000003</v>
       </c>
       <c r="B7" s="1">
-        <v>17.604342</v>
+        <v>17.604341999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1243.040000</v>
+        <v>1243.04</v>
       </c>
       <c r="D7" s="1">
-        <v>-311.340000</v>
+        <v>-311.33999999999997</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>63385.740634</v>
+        <v>63385.740634000002</v>
       </c>
       <c r="G7" s="1">
-        <v>17.607150</v>
+        <v>17.607150000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1267.810000</v>
+        <v>1267.81</v>
       </c>
       <c r="I7" s="1">
-        <v>-268.339000</v>
+        <v>-268.339</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>63395.924492</v>
+        <v>63395.924491999998</v>
       </c>
       <c r="L7" s="1">
-        <v>17.609979</v>
+        <v>17.609978999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1305.930000</v>
+        <v>1305.93</v>
       </c>
       <c r="N7" s="1">
-        <v>-206.111000</v>
+        <v>-206.11099999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>63406.144094</v>
+        <v>63406.144094000003</v>
       </c>
       <c r="Q7" s="1">
-        <v>17.612818</v>
+        <v>17.612818000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1318.440000</v>
+        <v>1318.44</v>
       </c>
       <c r="S7" s="1">
-        <v>-187.605000</v>
+        <v>-187.60499999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>63416.708386</v>
+        <v>63416.708385999998</v>
       </c>
       <c r="V7" s="1">
-        <v>17.615752</v>
+        <v>17.615752000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1332.220000</v>
+        <v>1332.22</v>
       </c>
       <c r="X7" s="1">
-        <v>-173.753000</v>
+        <v>-173.75299999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>63426.870914</v>
+        <v>63426.870913999999</v>
       </c>
       <c r="AA7" s="1">
         <v>17.618575</v>
       </c>
       <c r="AB7" s="1">
-        <v>1350.030000</v>
+        <v>1350.03</v>
       </c>
       <c r="AC7" s="1">
-        <v>-171.134000</v>
+        <v>-171.13399999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>63437.420790</v>
+        <v>63437.420789999996</v>
       </c>
       <c r="AF7" s="1">
         <v>17.621506</v>
       </c>
       <c r="AG7" s="1">
-        <v>1363.520000</v>
+        <v>1363.52</v>
       </c>
       <c r="AH7" s="1">
-        <v>-180.616000</v>
+        <v>-180.61600000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>63447.934519</v>
+        <v>63447.934519000002</v>
       </c>
       <c r="AK7" s="1">
         <v>17.624426</v>
       </c>
       <c r="AL7" s="1">
-        <v>1384.530000</v>
+        <v>1384.53</v>
       </c>
       <c r="AM7" s="1">
-        <v>-210.176000</v>
+        <v>-210.17599999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>63458.605945</v>
+        <v>63458.605945000003</v>
       </c>
       <c r="AP7" s="1">
-        <v>17.627391</v>
+        <v>17.627390999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1406.830000</v>
+        <v>1406.83</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.581000</v>
+        <v>-253.58099999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>63469.922634</v>
+        <v>63469.922634000002</v>
       </c>
       <c r="AU7" s="1">
-        <v>17.630534</v>
+        <v>17.630534000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1432.080000</v>
+        <v>1432.08</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.891000</v>
+        <v>-312.89100000000002</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>63481.118331</v>
+        <v>63481.118330999998</v>
       </c>
       <c r="AZ7" s="1">
         <v>17.633644</v>
       </c>
       <c r="BA7" s="1">
-        <v>1451.900000</v>
+        <v>1451.9</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.425000</v>
+        <v>-364.42500000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>63492.123068</v>
+        <v>63492.123068000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>17.636701</v>
+        <v>17.636700999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1538.910000</v>
+        <v>1538.91</v>
       </c>
       <c r="BG7" s="1">
-        <v>-609.449000</v>
+        <v>-609.44899999999996</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>63502.787054</v>
       </c>
       <c r="BJ7" s="1">
-        <v>17.639663</v>
+        <v>17.639662999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1695.300000</v>
+        <v>1695.3</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1047.540000</v>
+        <v>-1047.54</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>63513.895455</v>
+        <v>63513.895454999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>17.642749</v>
+        <v>17.642748999999998</v>
       </c>
       <c r="BP7" s="1">
-        <v>1992.160000</v>
+        <v>1992.16</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1803.840000</v>
+        <v>-1803.84</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>63524.367986</v>
+        <v>63524.367985999997</v>
       </c>
       <c r="BT7" s="1">
-        <v>17.645658</v>
+        <v>17.645658000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>2380.390000</v>
+        <v>2380.39</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2671.000000</v>
+        <v>-2671</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>63535.201108</v>
+        <v>63535.201108000001</v>
       </c>
       <c r="BY7" s="1">
         <v>17.648667</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2865.220000</v>
+        <v>2865.22</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3616.930000</v>
+        <v>-3616.93</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>63546.617525</v>
+        <v>63546.617525000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>17.651838</v>
+        <v>17.651838000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>4268.780000</v>
+        <v>4268.78</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5880.840000</v>
+        <v>-5880.84</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>63375.974904</v>
+        <v>63375.974904000002</v>
       </c>
       <c r="B8" s="1">
-        <v>17.604437</v>
+        <v>17.604437000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1243.110000</v>
+        <v>1243.1099999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-311.403000</v>
+        <v>-311.40300000000002</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>63386.084398</v>
+        <v>63386.084397999999</v>
       </c>
       <c r="G8" s="1">
         <v>17.607246</v>
       </c>
       <c r="H8" s="1">
-        <v>1268.800000</v>
+        <v>1268.8</v>
       </c>
       <c r="I8" s="1">
-        <v>-268.094000</v>
+        <v>-268.09399999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>63396.304923</v>
+        <v>63396.304923000003</v>
       </c>
       <c r="L8" s="1">
-        <v>17.610085</v>
+        <v>17.610085000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>1306.150000</v>
+        <v>1306.1500000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-206.087000</v>
+        <v>-206.08699999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>63406.838461</v>
+        <v>63406.838460999999</v>
       </c>
       <c r="Q8" s="1">
         <v>17.613011</v>
       </c>
       <c r="R8" s="1">
-        <v>1318.480000</v>
+        <v>1318.48</v>
       </c>
       <c r="S8" s="1">
-        <v>-187.578000</v>
+        <v>-187.578</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>63417.052116</v>
+        <v>63417.052115999999</v>
       </c>
       <c r="V8" s="1">
         <v>17.615848</v>
       </c>
       <c r="W8" s="1">
-        <v>1332.140000</v>
+        <v>1332.14</v>
       </c>
       <c r="X8" s="1">
-        <v>-173.916000</v>
+        <v>-173.916</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>63427.220594</v>
+        <v>63427.220593999999</v>
       </c>
       <c r="AA8" s="1">
         <v>17.618672</v>
       </c>
       <c r="AB8" s="1">
-        <v>1350.010000</v>
+        <v>1350.01</v>
       </c>
       <c r="AC8" s="1">
-        <v>-171.216000</v>
+        <v>-171.21600000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>63437.763030</v>
+        <v>63437.763030000002</v>
       </c>
       <c r="AF8" s="1">
-        <v>17.621601</v>
+        <v>17.621600999999998</v>
       </c>
       <c r="AG8" s="1">
-        <v>1363.300000</v>
+        <v>1363.3</v>
       </c>
       <c r="AH8" s="1">
-        <v>-180.776000</v>
+        <v>-180.77600000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>63448.590695</v>
+        <v>63448.590694999999</v>
       </c>
       <c r="AK8" s="1">
         <v>17.624609</v>
       </c>
       <c r="AL8" s="1">
-        <v>1384.540000</v>
+        <v>1384.54</v>
       </c>
       <c r="AM8" s="1">
-        <v>-210.218000</v>
+        <v>-210.21799999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>63459.285463</v>
       </c>
       <c r="AP8" s="1">
-        <v>17.627579</v>
+        <v>17.627579000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1406.820000</v>
+        <v>1406.82</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.592000</v>
+        <v>-253.59200000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>63470.372042</v>
+        <v>63470.372042000003</v>
       </c>
       <c r="AU8" s="1">
-        <v>17.630659</v>
+        <v>17.630659000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1432.080000</v>
+        <v>1432.08</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.926000</v>
+        <v>-312.92599999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>63481.499300</v>
+        <v>63481.499300000003</v>
       </c>
       <c r="AZ8" s="1">
-        <v>17.633750</v>
+        <v>17.633749999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1451.920000</v>
+        <v>1451.92</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.417000</v>
+        <v>-364.41699999999997</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>63492.511933</v>
+        <v>63492.511933000002</v>
       </c>
       <c r="BE8" s="1">
         <v>17.636809</v>
       </c>
       <c r="BF8" s="1">
-        <v>1538.870000</v>
+        <v>1538.87</v>
       </c>
       <c r="BG8" s="1">
-        <v>-609.470000</v>
+        <v>-609.47</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>63503.163519</v>
+        <v>63503.163519000002</v>
       </c>
       <c r="BJ8" s="1">
         <v>17.639768</v>
       </c>
       <c r="BK8" s="1">
-        <v>1695.280000</v>
+        <v>1695.28</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1047.530000</v>
+        <v>-1047.53</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>63514.324991</v>
+        <v>63514.324991000001</v>
       </c>
       <c r="BO8" s="1">
         <v>17.642868</v>
       </c>
       <c r="BP8" s="1">
-        <v>1992.080000</v>
+        <v>1992.08</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1803.840000</v>
+        <v>-1803.84</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>63524.788594</v>
+        <v>63524.788593999998</v>
       </c>
       <c r="BT8" s="1">
         <v>17.645775</v>
       </c>
       <c r="BU8" s="1">
-        <v>2380.160000</v>
+        <v>2380.16</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2670.780000</v>
+        <v>-2670.78</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>63535.657464</v>
+        <v>63535.657464000004</v>
       </c>
       <c r="BY8" s="1">
-        <v>17.648794</v>
+        <v>17.648793999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2865.060000</v>
+        <v>2865.06</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3616.590000</v>
+        <v>-3616.59</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>63547.170604</v>
+        <v>63547.170603999999</v>
       </c>
       <c r="CD8" s="1">
         <v>17.651992</v>
       </c>
       <c r="CE8" s="1">
-        <v>4268.820000</v>
+        <v>4268.82</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5868.230000</v>
+        <v>-5868.23</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>63376.318133</v>
+        <v>63376.318133000001</v>
       </c>
       <c r="B9" s="1">
         <v>17.604533</v>
       </c>
       <c r="C9" s="1">
-        <v>1243.410000</v>
+        <v>1243.4100000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-310.960000</v>
+        <v>-310.95999999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>63386.771847</v>
+        <v>63386.771847000004</v>
       </c>
       <c r="G9" s="1">
-        <v>17.607437</v>
+        <v>17.607437000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1270.000000</v>
+        <v>1270</v>
       </c>
       <c r="I9" s="1">
-        <v>-268.830000</v>
+        <v>-268.83</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>63396.966090</v>
+        <v>63396.966090000002</v>
       </c>
       <c r="L9" s="1">
-        <v>17.610268</v>
+        <v>17.610268000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1306.180000</v>
+        <v>1306.18</v>
       </c>
       <c r="N9" s="1">
-        <v>-206.022000</v>
+        <v>-206.02199999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>63407.189628</v>
@@ -2325,949 +2741,949 @@
         <v>17.613108</v>
       </c>
       <c r="R9" s="1">
-        <v>1318.550000</v>
+        <v>1318.55</v>
       </c>
       <c r="S9" s="1">
-        <v>-187.659000</v>
+        <v>-187.65899999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>63417.400304</v>
+        <v>63417.400304000003</v>
       </c>
       <c r="V9" s="1">
         <v>17.615945</v>
       </c>
       <c r="W9" s="1">
-        <v>1332.260000</v>
+        <v>1332.26</v>
       </c>
       <c r="X9" s="1">
-        <v>-174.032000</v>
+        <v>-174.03200000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>63427.567302</v>
+        <v>63427.567302000003</v>
       </c>
       <c r="AA9" s="1">
         <v>17.618769</v>
       </c>
       <c r="AB9" s="1">
-        <v>1350.080000</v>
+        <v>1350.08</v>
       </c>
       <c r="AC9" s="1">
-        <v>-171.056000</v>
+        <v>-171.05600000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>63438.422244</v>
+        <v>63438.422244000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>17.621784</v>
+        <v>17.621784000000002</v>
       </c>
       <c r="AG9" s="1">
-        <v>1363.100000</v>
+        <v>1363.1</v>
       </c>
       <c r="AH9" s="1">
-        <v>-180.564000</v>
+        <v>-180.56399999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>63448.983525</v>
+        <v>63448.983525000003</v>
       </c>
       <c r="AK9" s="1">
-        <v>17.624718</v>
+        <v>17.624718000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1384.500000</v>
+        <v>1384.5</v>
       </c>
       <c r="AM9" s="1">
-        <v>-210.156000</v>
+        <v>-210.15600000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>63459.690200</v>
+        <v>63459.690199999997</v>
       </c>
       <c r="AP9" s="1">
         <v>17.627692</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1406.830000</v>
+        <v>1406.83</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.564000</v>
+        <v>-253.56399999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>63470.739546</v>
+        <v>63470.739545999997</v>
       </c>
       <c r="AU9" s="1">
         <v>17.630761</v>
       </c>
       <c r="AV9" s="1">
-        <v>1432.080000</v>
+        <v>1432.08</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.914000</v>
+        <v>-312.91399999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>63481.875721</v>
+        <v>63481.875720999997</v>
       </c>
       <c r="AZ9" s="1">
-        <v>17.633854</v>
+        <v>17.633853999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1451.880000</v>
+        <v>1451.88</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.416000</v>
+        <v>-364.416</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>63492.872029</v>
+        <v>63492.872028999998</v>
       </c>
       <c r="BE9" s="1">
-        <v>17.636909</v>
+        <v>17.636908999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1538.900000</v>
+        <v>1538.9</v>
       </c>
       <c r="BG9" s="1">
-        <v>-609.464000</v>
+        <v>-609.46400000000006</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>63503.581646</v>
+        <v>63503.581645999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>17.639884</v>
+        <v>17.639883999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1695.170000</v>
+        <v>1695.17</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1047.640000</v>
+        <v>-1047.6400000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>63514.711407</v>
+        <v>63514.711407000003</v>
       </c>
       <c r="BO9" s="1">
         <v>17.642975</v>
       </c>
       <c r="BP9" s="1">
-        <v>1992.110000</v>
+        <v>1992.11</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1803.830000</v>
+        <v>-1803.83</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>63525.199777</v>
+        <v>63525.199777000002</v>
       </c>
       <c r="BT9" s="1">
         <v>17.645889</v>
       </c>
       <c r="BU9" s="1">
-        <v>2380.140000</v>
+        <v>2380.14</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2670.820000</v>
+        <v>-2670.82</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>63536.103368</v>
+        <v>63536.103367999996</v>
       </c>
       <c r="BY9" s="1">
-        <v>17.648918</v>
+        <v>17.648917999999998</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2865.580000</v>
+        <v>2865.58</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3616.330000</v>
+        <v>-3616.33</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>63547.699299</v>
       </c>
       <c r="CD9" s="1">
-        <v>17.652139</v>
+        <v>17.652138999999998</v>
       </c>
       <c r="CE9" s="1">
-        <v>4271.410000</v>
+        <v>4271.41</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5881.910000</v>
+        <v>-5881.91</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>63377.000628</v>
+        <v>63377.000628000002</v>
       </c>
       <c r="B10" s="1">
-        <v>17.604722</v>
+        <v>17.604721999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1243.580000</v>
+        <v>1243.58</v>
       </c>
       <c r="D10" s="1">
-        <v>-310.883000</v>
+        <v>-310.88299999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>63387.117031</v>
+        <v>63387.117031000002</v>
       </c>
       <c r="G10" s="1">
         <v>17.607533</v>
       </c>
       <c r="H10" s="1">
-        <v>1269.820000</v>
+        <v>1269.82</v>
       </c>
       <c r="I10" s="1">
-        <v>-268.796000</v>
+        <v>-268.79599999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>63397.315801</v>
+        <v>63397.315800999997</v>
       </c>
       <c r="L10" s="1">
-        <v>17.610366</v>
+        <v>17.610365999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1306.360000</v>
+        <v>1306.3599999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-206.196000</v>
+        <v>-206.196</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>63407.536332</v>
+        <v>63407.536332000003</v>
       </c>
       <c r="Q10" s="1">
-        <v>17.613205</v>
+        <v>17.613205000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1318.520000</v>
+        <v>1318.52</v>
       </c>
       <c r="S10" s="1">
-        <v>-187.663000</v>
+        <v>-187.66300000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>63418.060446</v>
+        <v>63418.060446000003</v>
       </c>
       <c r="V10" s="1">
         <v>17.616128</v>
       </c>
       <c r="W10" s="1">
-        <v>1332.060000</v>
+        <v>1332.06</v>
       </c>
       <c r="X10" s="1">
-        <v>-173.716000</v>
+        <v>-173.71600000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>63428.229921</v>
+        <v>63428.229920999998</v>
       </c>
       <c r="AA10" s="1">
-        <v>17.618953</v>
+        <v>17.618953000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1349.920000</v>
+        <v>1349.92</v>
       </c>
       <c r="AC10" s="1">
-        <v>-171.147000</v>
+        <v>-171.14699999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>63438.794426</v>
       </c>
       <c r="AF10" s="1">
-        <v>17.621887</v>
+        <v>17.621887000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1363.360000</v>
+        <v>1363.36</v>
       </c>
       <c r="AH10" s="1">
-        <v>-180.525000</v>
+        <v>-180.52500000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>63449.329732</v>
+        <v>63449.329731999998</v>
       </c>
       <c r="AK10" s="1">
-        <v>17.624814</v>
+        <v>17.624814000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1384.580000</v>
+        <v>1384.58</v>
       </c>
       <c r="AM10" s="1">
-        <v>-210.173000</v>
+        <v>-210.173</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>63460.070141</v>
+        <v>63460.070140999997</v>
       </c>
       <c r="AP10" s="1">
-        <v>17.627797</v>
+        <v>17.627797000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1406.850000</v>
+        <v>1406.85</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.561000</v>
+        <v>-253.56100000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>63471.101160</v>
+        <v>63471.101159999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>17.630861</v>
+        <v>17.630860999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1432.100000</v>
+        <v>1432.1</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.887000</v>
+        <v>-312.887</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>63482.289883</v>
+        <v>63482.289882999998</v>
       </c>
       <c r="AZ10" s="1">
         <v>17.633969</v>
       </c>
       <c r="BA10" s="1">
-        <v>1451.860000</v>
+        <v>1451.86</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.383000</v>
+        <v>-364.38299999999998</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>63493.283248</v>
       </c>
       <c r="BE10" s="1">
-        <v>17.637023</v>
+        <v>17.637022999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1538.860000</v>
+        <v>1538.86</v>
       </c>
       <c r="BG10" s="1">
-        <v>-609.435000</v>
+        <v>-609.43499999999995</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>63503.935294</v>
+        <v>63503.935294000003</v>
       </c>
       <c r="BJ10" s="1">
         <v>17.639982</v>
       </c>
       <c r="BK10" s="1">
-        <v>1695.270000</v>
+        <v>1695.27</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1047.450000</v>
+        <v>-1047.45</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>63515.133010</v>
+        <v>63515.133009999998</v>
       </c>
       <c r="BO10" s="1">
         <v>17.643093</v>
       </c>
       <c r="BP10" s="1">
-        <v>1992.100000</v>
+        <v>1992.1</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1803.630000</v>
+        <v>-1803.63</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>63525.616452</v>
+        <v>63525.616452000002</v>
       </c>
       <c r="BT10" s="1">
-        <v>17.646005</v>
+        <v>17.646004999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>2380.330000</v>
+        <v>2380.33</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2670.830000</v>
+        <v>-2670.83</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>63536.560643</v>
+        <v>63536.560642999997</v>
       </c>
       <c r="BY10" s="1">
-        <v>17.649045</v>
+        <v>17.649045000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2865.640000</v>
+        <v>2865.64</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3615.830000</v>
+        <v>-3615.83</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>63548.216627</v>
+        <v>63548.216627000002</v>
       </c>
       <c r="CD10" s="1">
         <v>17.652282</v>
       </c>
       <c r="CE10" s="1">
-        <v>4283.710000</v>
+        <v>4283.71</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5877.040000</v>
+        <v>-5877.04</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>63377.344852</v>
+        <v>63377.344852000002</v>
       </c>
       <c r="B11" s="1">
-        <v>17.604818</v>
+        <v>17.604818000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>1243.410000</v>
+        <v>1243.4100000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-310.700000</v>
+        <v>-310.7</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>63387.461255</v>
+        <v>63387.461255000002</v>
       </c>
       <c r="G11" s="1">
-        <v>17.607628</v>
+        <v>17.607627999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>1268.970000</v>
+        <v>1268.97</v>
       </c>
       <c r="I11" s="1">
-        <v>-269.459000</v>
+        <v>-269.459</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>63397.973991</v>
+        <v>63397.973990999999</v>
       </c>
       <c r="L11" s="1">
-        <v>17.610548</v>
+        <v>17.610548000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1306.080000</v>
+        <v>1306.08</v>
       </c>
       <c r="N11" s="1">
-        <v>-206.130000</v>
+        <v>-206.13</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>63408.200971</v>
+        <v>63408.200970999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>17.613389</v>
+        <v>17.613389000000002</v>
       </c>
       <c r="R11" s="1">
-        <v>1318.480000</v>
+        <v>1318.48</v>
       </c>
       <c r="S11" s="1">
-        <v>-187.620000</v>
+        <v>-187.62</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>63418.430959</v>
+        <v>63418.430958999998</v>
       </c>
       <c r="V11" s="1">
-        <v>17.616231</v>
+        <v>17.616230999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1332.240000</v>
+        <v>1332.24</v>
       </c>
       <c r="X11" s="1">
-        <v>-173.930000</v>
+        <v>-173.93</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>63428.617296</v>
+        <v>63428.617295999997</v>
       </c>
       <c r="AA11" s="1">
-        <v>17.619060</v>
+        <v>17.619060000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1349.860000</v>
+        <v>1349.86</v>
       </c>
       <c r="AC11" s="1">
-        <v>-171.111000</v>
+        <v>-171.11099999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>63439.137475</v>
+        <v>63439.137475000003</v>
       </c>
       <c r="AF11" s="1">
         <v>17.621983</v>
       </c>
       <c r="AG11" s="1">
-        <v>1363.260000</v>
+        <v>1363.26</v>
       </c>
       <c r="AH11" s="1">
-        <v>-180.689000</v>
+        <v>-180.68899999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>63449.679449</v>
+        <v>63449.679449000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>17.624911</v>
+        <v>17.624911000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1384.480000</v>
+        <v>1384.48</v>
       </c>
       <c r="AM11" s="1">
-        <v>-210.173000</v>
+        <v>-210.173</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>63460.434167</v>
+        <v>63460.434166999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>17.627898</v>
+        <v>17.627897999999998</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1406.840000</v>
+        <v>1406.84</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.595000</v>
+        <v>-253.595</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>63471.524841</v>
+        <v>63471.524840999999</v>
       </c>
       <c r="AU11" s="1">
         <v>17.630979</v>
       </c>
       <c r="AV11" s="1">
-        <v>1432.070000</v>
+        <v>1432.07</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.920000</v>
+        <v>-312.92</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>63482.593465</v>
+        <v>63482.593464999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>17.634054</v>
+        <v>17.634053999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1451.900000</v>
+        <v>1451.9</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.394000</v>
+        <v>-364.39400000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>63493.594699</v>
+        <v>63493.594699000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>17.637110</v>
+        <v>17.63711</v>
       </c>
       <c r="BF11" s="1">
-        <v>1538.900000</v>
+        <v>1538.9</v>
       </c>
       <c r="BG11" s="1">
-        <v>-609.439000</v>
+        <v>-609.43899999999996</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>63504.310764</v>
+        <v>63504.310764000002</v>
       </c>
       <c r="BJ11" s="1">
         <v>17.640086</v>
       </c>
       <c r="BK11" s="1">
-        <v>1695.200000</v>
+        <v>1695.2</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1047.560000</v>
+        <v>-1047.56</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>63515.528782</v>
+        <v>63515.528782000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>17.643202</v>
+        <v>17.643201999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1992.070000</v>
+        <v>1992.07</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1803.770000</v>
+        <v>-1803.77</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>63526.030081</v>
+        <v>63526.030080999997</v>
       </c>
       <c r="BT11" s="1">
-        <v>17.646119</v>
+        <v>17.646118999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>2380.220000</v>
+        <v>2380.2199999999998</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2670.820000</v>
+        <v>-2670.82</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>63537.008066</v>
+        <v>63537.008066000002</v>
       </c>
       <c r="BY11" s="1">
-        <v>17.649169</v>
+        <v>17.649169000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2864.950000</v>
+        <v>2864.95</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3616.540000</v>
+        <v>-3616.54</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>63548.736435</v>
+        <v>63548.736434999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>17.652427</v>
+        <v>17.652426999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>4276.980000</v>
+        <v>4276.9799999999996</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5864.190000</v>
+        <v>-5864.19</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>63377.684611</v>
+        <v>63377.684610999997</v>
       </c>
       <c r="B12" s="1">
-        <v>17.604912</v>
+        <v>17.604911999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1243.010000</v>
+        <v>1243.01</v>
       </c>
       <c r="D12" s="1">
-        <v>-311.279000</v>
+        <v>-311.279</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>63388.132188</v>
+        <v>63388.132188000003</v>
       </c>
       <c r="G12" s="1">
-        <v>17.607814</v>
+        <v>17.607814000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1268.710000</v>
+        <v>1268.71</v>
       </c>
       <c r="I12" s="1">
-        <v>-268.820000</v>
+        <v>-268.82</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>63398.352408</v>
+        <v>63398.352407999999</v>
       </c>
       <c r="L12" s="1">
-        <v>17.610653</v>
+        <v>17.610652999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1306.040000</v>
+        <v>1306.04</v>
       </c>
       <c r="N12" s="1">
-        <v>-206.027000</v>
+        <v>-206.02699999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>63408.585408</v>
+        <v>63408.585407999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>17.613496</v>
+        <v>17.613496000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1318.500000</v>
+        <v>1318.5</v>
       </c>
       <c r="S12" s="1">
-        <v>-187.639000</v>
+        <v>-187.63900000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>63418.773693</v>
+        <v>63418.773693000003</v>
       </c>
       <c r="V12" s="1">
-        <v>17.616326</v>
+        <v>17.616326000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1332.050000</v>
+        <v>1332.05</v>
       </c>
       <c r="X12" s="1">
-        <v>-173.707000</v>
+        <v>-173.70699999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>63428.962512</v>
+        <v>63428.962511999998</v>
       </c>
       <c r="AA12" s="1">
         <v>17.619156</v>
       </c>
       <c r="AB12" s="1">
-        <v>1349.820000</v>
+        <v>1349.82</v>
       </c>
       <c r="AC12" s="1">
-        <v>-171.274000</v>
+        <v>-171.274</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>63439.478199</v>
+        <v>63439.478198999997</v>
       </c>
       <c r="AF12" s="1">
-        <v>17.622077</v>
+        <v>17.622077000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1363.300000</v>
+        <v>1363.3</v>
       </c>
       <c r="AH12" s="1">
-        <v>-180.558000</v>
+        <v>-180.55799999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>63450.098035</v>
+        <v>63450.098035000003</v>
       </c>
       <c r="AK12" s="1">
-        <v>17.625027</v>
+        <v>17.625026999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1384.530000</v>
+        <v>1384.53</v>
       </c>
       <c r="AM12" s="1">
-        <v>-210.188000</v>
+        <v>-210.18799999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>63460.852789</v>
+        <v>63460.852788999997</v>
       </c>
       <c r="AP12" s="1">
-        <v>17.628015</v>
+        <v>17.628015000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1406.810000</v>
+        <v>1406.81</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.582000</v>
+        <v>-253.58199999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>63471.831241</v>
       </c>
       <c r="AU12" s="1">
-        <v>17.631064</v>
+        <v>17.631063999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1432.070000</v>
+        <v>1432.07</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.935000</v>
+        <v>-312.935</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>63482.954056</v>
+        <v>63482.954056000002</v>
       </c>
       <c r="AZ12" s="1">
-        <v>17.634154</v>
+        <v>17.634153999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1451.910000</v>
+        <v>1451.91</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.359000</v>
+        <v>-364.35899999999998</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>63493.957772</v>
+        <v>63493.957772000002</v>
       </c>
       <c r="BE12" s="1">
-        <v>17.637210</v>
+        <v>17.63721</v>
       </c>
       <c r="BF12" s="1">
-        <v>1538.880000</v>
+        <v>1538.88</v>
       </c>
       <c r="BG12" s="1">
-        <v>-609.433000</v>
+        <v>-609.43299999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>63504.688220</v>
+        <v>63504.688219999996</v>
       </c>
       <c r="BJ12" s="1">
-        <v>17.640191</v>
+        <v>17.640191000000002</v>
       </c>
       <c r="BK12" s="1">
-        <v>1695.250000</v>
+        <v>1695.25</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1047.560000</v>
+        <v>-1047.56</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>63515.954068</v>
+        <v>63515.954067999999</v>
       </c>
       <c r="BO12" s="1">
         <v>17.643321</v>
       </c>
       <c r="BP12" s="1">
-        <v>1991.960000</v>
+        <v>1991.96</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1803.730000</v>
+        <v>-1803.73</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>63526.470528</v>
+        <v>63526.470527999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>17.646242</v>
+        <v>17.646242000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>2379.710000</v>
+        <v>2379.71</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2670.510000</v>
+        <v>-2670.51</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>63537.429634</v>
@@ -3276,604 +3692,604 @@
         <v>17.649286</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2865.200000</v>
+        <v>2865.2</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3616.770000</v>
+        <v>-3616.77</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>63549.253797</v>
+        <v>63549.253796999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>17.652570</v>
+        <v>17.652570000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>4263.080000</v>
+        <v>4263.08</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5873.030000</v>
+        <v>-5873.03</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>63378.336850</v>
+        <v>63378.33685</v>
       </c>
       <c r="B13" s="1">
-        <v>17.605094</v>
+        <v>17.605094000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>1243.390000</v>
+        <v>1243.3900000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-310.834000</v>
+        <v>-310.834</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>63388.492475</v>
+        <v>63388.492474999999</v>
       </c>
       <c r="G13" s="1">
-        <v>17.607915</v>
+        <v>17.607914999999998</v>
       </c>
       <c r="H13" s="1">
-        <v>1268.160000</v>
+        <v>1268.1600000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-268.674000</v>
+        <v>-268.67399999999998</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>63398.696669</v>
+        <v>63398.696668999997</v>
       </c>
       <c r="L13" s="1">
-        <v>17.610749</v>
+        <v>17.610748999999998</v>
       </c>
       <c r="M13" s="1">
-        <v>1305.960000</v>
+        <v>1305.96</v>
       </c>
       <c r="N13" s="1">
-        <v>-206.131000</v>
+        <v>-206.131</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>63408.933563</v>
+        <v>63408.933562999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>17.613593</v>
+        <v>17.613593000000002</v>
       </c>
       <c r="R13" s="1">
-        <v>1318.540000</v>
+        <v>1318.54</v>
       </c>
       <c r="S13" s="1">
-        <v>-187.584000</v>
+        <v>-187.584</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>63419.115942</v>
+        <v>63419.115941999997</v>
       </c>
       <c r="V13" s="1">
-        <v>17.616421</v>
+        <v>17.616420999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>1332.100000</v>
+        <v>1332.1</v>
       </c>
       <c r="X13" s="1">
-        <v>-173.684000</v>
+        <v>-173.684</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>63429.310207</v>
+        <v>63429.310207000002</v>
       </c>
       <c r="AA13" s="1">
         <v>17.619253</v>
       </c>
       <c r="AB13" s="1">
-        <v>1350.000000</v>
+        <v>1350</v>
       </c>
       <c r="AC13" s="1">
-        <v>-171.234000</v>
+        <v>-171.23400000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>63439.913219</v>
+        <v>63439.913219000002</v>
       </c>
       <c r="AF13" s="1">
-        <v>17.622198</v>
+        <v>17.622198000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1363.140000</v>
+        <v>1363.14</v>
       </c>
       <c r="AH13" s="1">
-        <v>-180.703000</v>
+        <v>-180.703</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>63450.395172</v>
+        <v>63450.395171999997</v>
       </c>
       <c r="AK13" s="1">
-        <v>17.625110</v>
+        <v>17.625109999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1384.540000</v>
+        <v>1384.54</v>
       </c>
       <c r="AM13" s="1">
-        <v>-210.158000</v>
+        <v>-210.15799999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>63461.153861</v>
+        <v>63461.153860999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>17.628098</v>
+        <v>17.628098000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1406.810000</v>
+        <v>1406.81</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.580000</v>
+        <v>-253.58</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>63472.193815</v>
+        <v>63472.193814999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>17.631165</v>
+        <v>17.631164999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1432.090000</v>
+        <v>1432.09</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.903000</v>
+        <v>-312.90300000000002</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>63483.312632</v>
+        <v>63483.312632000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>17.634254</v>
+        <v>17.634253999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1451.920000</v>
+        <v>1451.92</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.432000</v>
+        <v>-364.43200000000002</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>63494.316909</v>
+        <v>63494.316909000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>17.637310</v>
+        <v>17.637309999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1538.890000</v>
+        <v>1538.89</v>
       </c>
       <c r="BG13" s="1">
-        <v>-609.435000</v>
+        <v>-609.43499999999995</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>63505.438395</v>
+        <v>63505.438394999997</v>
       </c>
       <c r="BJ13" s="1">
-        <v>17.640400</v>
+        <v>17.6404</v>
       </c>
       <c r="BK13" s="1">
-        <v>1695.210000</v>
+        <v>1695.21</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1047.460000</v>
+        <v>-1047.46</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>63516.350158</v>
+        <v>63516.350158000001</v>
       </c>
       <c r="BO13" s="1">
         <v>17.643431</v>
       </c>
       <c r="BP13" s="1">
-        <v>1992.080000</v>
+        <v>1992.08</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1803.720000</v>
+        <v>-1803.72</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>63526.897088</v>
+        <v>63526.897087999998</v>
       </c>
       <c r="BT13" s="1">
-        <v>17.646360</v>
+        <v>17.646360000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>2379.970000</v>
+        <v>2379.9699999999998</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2670.880000</v>
+        <v>-2670.88</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>63537.851729</v>
+        <v>63537.851729000002</v>
       </c>
       <c r="BY13" s="1">
         <v>17.649403</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2865.260000</v>
+        <v>2865.26</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3616.230000</v>
+        <v>-3616.23</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>63550.080095</v>
+        <v>63550.080094999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>17.652800</v>
+        <v>17.652799999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>4274.130000</v>
+        <v>4274.13</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5886.380000</v>
+        <v>-5886.38</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>63378.709847</v>
+        <v>63378.709846999998</v>
       </c>
       <c r="B14" s="1">
         <v>17.605197</v>
       </c>
       <c r="C14" s="1">
-        <v>1242.950000</v>
+        <v>1242.95</v>
       </c>
       <c r="D14" s="1">
-        <v>-310.986000</v>
+        <v>-310.98599999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>63388.841620</v>
+        <v>63388.841619999999</v>
       </c>
       <c r="G14" s="1">
-        <v>17.608012</v>
+        <v>17.608011999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1269.280000</v>
+        <v>1269.28</v>
       </c>
       <c r="I14" s="1">
-        <v>-268.761000</v>
+        <v>-268.76100000000002</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>63399.043368</v>
+        <v>63399.043367999999</v>
       </c>
       <c r="L14" s="1">
-        <v>17.610845</v>
+        <v>17.610845000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1306.040000</v>
+        <v>1306.04</v>
       </c>
       <c r="N14" s="1">
-        <v>-206.218000</v>
+        <v>-206.21799999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>63409.280361</v>
+        <v>63409.280360999997</v>
       </c>
       <c r="Q14" s="1">
-        <v>17.613689</v>
+        <v>17.613689000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1318.540000</v>
+        <v>1318.54</v>
       </c>
       <c r="S14" s="1">
-        <v>-187.663000</v>
+        <v>-187.66300000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>63419.531580</v>
+        <v>63419.531580000003</v>
       </c>
       <c r="V14" s="1">
-        <v>17.616537</v>
+        <v>17.616537000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1331.920000</v>
+        <v>1331.92</v>
       </c>
       <c r="X14" s="1">
-        <v>-173.878000</v>
+        <v>-173.87799999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>63429.774959</v>
+        <v>63429.774959000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>17.619382</v>
+        <v>17.619382000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>1350.010000</v>
+        <v>1350.01</v>
       </c>
       <c r="AC14" s="1">
-        <v>-171.254000</v>
+        <v>-171.25399999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>63440.192434</v>
+        <v>63440.192433999997</v>
       </c>
       <c r="AF14" s="1">
-        <v>17.622276</v>
+        <v>17.622275999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1363.270000</v>
+        <v>1363.27</v>
       </c>
       <c r="AH14" s="1">
-        <v>-180.484000</v>
+        <v>-180.48400000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>63450.740852</v>
+        <v>63450.740852000003</v>
       </c>
       <c r="AK14" s="1">
-        <v>17.625206</v>
+        <v>17.625205999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1384.540000</v>
+        <v>1384.54</v>
       </c>
       <c r="AM14" s="1">
-        <v>-210.153000</v>
+        <v>-210.15299999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>63461.515941</v>
+        <v>63461.515940999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>17.628199</v>
+        <v>17.628198999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1406.840000</v>
+        <v>1406.84</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.572000</v>
+        <v>-253.572</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>63472.559864</v>
+        <v>63472.559864000003</v>
       </c>
       <c r="AU14" s="1">
-        <v>17.631267</v>
+        <v>17.631267000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1432.100000</v>
+        <v>1432.1</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.911000</v>
+        <v>-312.911</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>63484.030375</v>
+        <v>63484.030375000002</v>
       </c>
       <c r="AZ14" s="1">
-        <v>17.634453</v>
+        <v>17.634453000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1451.890000</v>
+        <v>1451.89</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.399000</v>
+        <v>-364.399</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>63495.039049</v>
+        <v>63495.039048999999</v>
       </c>
       <c r="BE14" s="1">
         <v>17.637511</v>
       </c>
       <c r="BF14" s="1">
-        <v>1538.860000</v>
+        <v>1538.86</v>
       </c>
       <c r="BG14" s="1">
-        <v>-609.467000</v>
+        <v>-609.46699999999998</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>63505.815130</v>
+        <v>63505.815130000003</v>
       </c>
       <c r="BJ14" s="1">
         <v>17.640504</v>
       </c>
       <c r="BK14" s="1">
-        <v>1695.190000</v>
+        <v>1695.19</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1047.510000</v>
+        <v>-1047.51</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>63516.769772</v>
       </c>
       <c r="BO14" s="1">
-        <v>17.643547</v>
+        <v>17.643547000000002</v>
       </c>
       <c r="BP14" s="1">
-        <v>1992.030000</v>
+        <v>1992.03</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1803.490000</v>
+        <v>-1803.49</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>63527.308271</v>
+        <v>63527.308271000002</v>
       </c>
       <c r="BT14" s="1">
-        <v>17.646475</v>
+        <v>17.646474999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>2379.670000</v>
+        <v>2379.67</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2670.600000</v>
+        <v>-2670.6</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>63538.585522</v>
+        <v>63538.585522000001</v>
       </c>
       <c r="BY14" s="1">
         <v>17.649607</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2864.820000</v>
+        <v>2864.82</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3616.260000</v>
+        <v>-3616.26</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>63550.320688</v>
       </c>
       <c r="CD14" s="1">
-        <v>17.652867</v>
+        <v>17.652867000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>4281.800000</v>
+        <v>4281.8</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5864.500000</v>
+        <v>-5864.5</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>63379.053570</v>
+        <v>63379.053569999996</v>
       </c>
       <c r="B15" s="1">
         <v>17.605293</v>
       </c>
       <c r="C15" s="1">
-        <v>1243.380000</v>
+        <v>1243.3800000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-310.894000</v>
+        <v>-310.89400000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>63389.186838</v>
+        <v>63389.186838000001</v>
       </c>
       <c r="G15" s="1">
         <v>17.608107</v>
       </c>
       <c r="H15" s="1">
-        <v>1269.520000</v>
+        <v>1269.52</v>
       </c>
       <c r="I15" s="1">
-        <v>-269.457000</v>
+        <v>-269.45699999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>63399.475351</v>
+        <v>63399.475351000001</v>
       </c>
       <c r="L15" s="1">
         <v>17.610965</v>
       </c>
       <c r="M15" s="1">
-        <v>1306.130000</v>
+        <v>1306.1300000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-205.887000</v>
+        <v>-205.887</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>63409.709305</v>
+        <v>63409.709304999997</v>
       </c>
       <c r="Q15" s="1">
-        <v>17.613808</v>
+        <v>17.613807999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>1318.510000</v>
+        <v>1318.51</v>
       </c>
       <c r="S15" s="1">
-        <v>-187.647000</v>
+        <v>-187.64699999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>63419.816284</v>
@@ -3882,178 +4298,178 @@
         <v>17.616616</v>
       </c>
       <c r="W15" s="1">
-        <v>1332.090000</v>
+        <v>1332.09</v>
       </c>
       <c r="X15" s="1">
-        <v>-173.581000</v>
+        <v>-173.58099999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>63430.053251</v>
+        <v>63430.053250999998</v>
       </c>
       <c r="AA15" s="1">
-        <v>17.619459</v>
+        <v>17.619458999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1349.990000</v>
+        <v>1349.99</v>
       </c>
       <c r="AC15" s="1">
-        <v>-171.182000</v>
+        <v>-171.18199999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>63440.535666</v>
+        <v>63440.535666000003</v>
       </c>
       <c r="AF15" s="1">
-        <v>17.622371</v>
+        <v>17.622371000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1363.220000</v>
+        <v>1363.22</v>
       </c>
       <c r="AH15" s="1">
-        <v>-180.702000</v>
+        <v>-180.702</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>63451.092038</v>
+        <v>63451.092038000003</v>
       </c>
       <c r="AK15" s="1">
-        <v>17.625303</v>
+        <v>17.625302999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1384.520000</v>
+        <v>1384.52</v>
       </c>
       <c r="AM15" s="1">
-        <v>-210.157000</v>
+        <v>-210.15700000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>63461.878021</v>
+        <v>63461.878020999997</v>
       </c>
       <c r="AP15" s="1">
-        <v>17.628299</v>
+        <v>17.628298999999998</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1406.840000</v>
+        <v>1406.84</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.539000</v>
+        <v>-253.53899999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>63473.288485</v>
+        <v>63473.288484999997</v>
       </c>
       <c r="AU15" s="1">
-        <v>17.631469</v>
+        <v>17.631468999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1432.100000</v>
+        <v>1432.1</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.872000</v>
+        <v>-312.87200000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>63484.386968</v>
+        <v>63484.386967999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>17.634552</v>
+        <v>17.634551999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1451.890000</v>
+        <v>1451.89</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.388000</v>
+        <v>-364.38799999999998</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>63495.399641</v>
+        <v>63495.399641000004</v>
       </c>
       <c r="BE15" s="1">
         <v>17.637611</v>
       </c>
       <c r="BF15" s="1">
-        <v>1538.880000</v>
+        <v>1538.88</v>
       </c>
       <c r="BG15" s="1">
-        <v>-609.442000</v>
+        <v>-609.44200000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>63506.191630</v>
+        <v>63506.191630000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>17.640609</v>
+        <v>17.640609000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1695.220000</v>
+        <v>1695.22</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1047.510000</v>
+        <v>-1047.51</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>63517.486987</v>
+        <v>63517.486986999997</v>
       </c>
       <c r="BO15" s="1">
         <v>17.643746</v>
       </c>
       <c r="BP15" s="1">
-        <v>1991.980000</v>
+        <v>1991.98</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1803.610000</v>
+        <v>-1803.61</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>63528.053008</v>
+        <v>63528.053008000003</v>
       </c>
       <c r="BT15" s="1">
-        <v>17.646681</v>
+        <v>17.646681000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>2379.880000</v>
+        <v>2379.88</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2671.020000</v>
+        <v>-2671.02</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>63538.695956</v>
+        <v>63538.695956000003</v>
       </c>
       <c r="BY15" s="1">
-        <v>17.649638</v>
+        <v>17.649637999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2865.000000</v>
+        <v>2865</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3615.920000</v>
+        <v>-3615.92</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>63550.852863</v>
@@ -4062,362 +4478,362 @@
         <v>17.653015</v>
       </c>
       <c r="CE15" s="1">
-        <v>4265.010000</v>
+        <v>4265.01</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5880.740000</v>
+        <v>-5880.74</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>63379.393862</v>
+        <v>63379.393861999997</v>
       </c>
       <c r="B16" s="1">
         <v>17.605387</v>
       </c>
       <c r="C16" s="1">
-        <v>1243.220000</v>
+        <v>1243.22</v>
       </c>
       <c r="D16" s="1">
-        <v>-311.212000</v>
+        <v>-311.21199999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>63389.614918</v>
+        <v>63389.614917999999</v>
       </c>
       <c r="G16" s="1">
-        <v>17.608226</v>
+        <v>17.608225999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>1269.350000</v>
+        <v>1269.3499999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-269.219000</v>
+        <v>-269.21899999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>63399.755592</v>
+        <v>63399.755592000001</v>
       </c>
       <c r="L16" s="1">
-        <v>17.611043</v>
+        <v>17.611042999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1306.260000</v>
+        <v>1306.26</v>
       </c>
       <c r="N16" s="1">
-        <v>-205.838000</v>
+        <v>-205.83799999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>63409.987588</v>
+        <v>63409.987588000004</v>
       </c>
       <c r="Q16" s="1">
         <v>17.613885</v>
       </c>
       <c r="R16" s="1">
-        <v>1318.510000</v>
+        <v>1318.51</v>
       </c>
       <c r="S16" s="1">
-        <v>-187.617000</v>
+        <v>-187.61699999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>63420.158059</v>
+        <v>63420.158059000001</v>
       </c>
       <c r="V16" s="1">
-        <v>17.616711</v>
+        <v>17.616710999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>1332.240000</v>
+        <v>1332.24</v>
       </c>
       <c r="X16" s="1">
-        <v>-173.710000</v>
+        <v>-173.71</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>63430.384047</v>
       </c>
       <c r="AA16" s="1">
-        <v>17.619551</v>
+        <v>17.619551000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1350.040000</v>
+        <v>1350.04</v>
       </c>
       <c r="AC16" s="1">
-        <v>-171.156000</v>
+        <v>-171.15600000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>63440.880913</v>
+        <v>63440.880913000001</v>
       </c>
       <c r="AF16" s="1">
         <v>17.622467</v>
       </c>
       <c r="AG16" s="1">
-        <v>1363.230000</v>
+        <v>1363.23</v>
       </c>
       <c r="AH16" s="1">
-        <v>-180.617000</v>
+        <v>-180.61699999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>63451.786913</v>
+        <v>63451.786913000004</v>
       </c>
       <c r="AK16" s="1">
-        <v>17.625496</v>
+        <v>17.625495999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>1384.520000</v>
+        <v>1384.52</v>
       </c>
       <c r="AM16" s="1">
-        <v>-210.165000</v>
+        <v>-210.16499999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>63462.596227</v>
+        <v>63462.596227000002</v>
       </c>
       <c r="AP16" s="1">
-        <v>17.628499</v>
+        <v>17.628499000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1406.820000</v>
+        <v>1406.82</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.564000</v>
+        <v>-253.56399999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>63473.679829</v>
+        <v>63473.679829000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>17.631578</v>
+        <v>17.631578000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1432.080000</v>
+        <v>1432.08</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.894000</v>
+        <v>-312.89400000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>63484.743094</v>
+        <v>63484.743093999998</v>
       </c>
       <c r="AZ16" s="1">
-        <v>17.634651</v>
+        <v>17.634651000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>1451.910000</v>
+        <v>1451.91</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.379000</v>
+        <v>-364.37900000000002</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>63495.778584</v>
       </c>
       <c r="BE16" s="1">
-        <v>17.637716</v>
+        <v>17.637716000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1538.920000</v>
+        <v>1538.92</v>
       </c>
       <c r="BG16" s="1">
-        <v>-609.411000</v>
+        <v>-609.41099999999994</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>63506.880041</v>
+        <v>63506.880040999997</v>
       </c>
       <c r="BJ16" s="1">
-        <v>17.640800</v>
+        <v>17.640799999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1695.200000</v>
+        <v>1695.2</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1047.430000</v>
+        <v>-1047.43</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>63517.603059</v>
+        <v>63517.603059000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>17.643779</v>
+        <v>17.643778999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1991.760000</v>
+        <v>1991.76</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1803.660000</v>
+        <v>-1803.66</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>63528.163868</v>
+        <v>63528.163868000003</v>
       </c>
       <c r="BT16" s="1">
-        <v>17.646712</v>
+        <v>17.646712000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>2379.740000</v>
+        <v>2379.7399999999998</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2670.880000</v>
+        <v>-2670.88</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>63539.130947</v>
+        <v>63539.130946999998</v>
       </c>
       <c r="BY16" s="1">
         <v>17.649759</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2864.730000</v>
+        <v>2864.73</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3616.410000</v>
+        <v>-3616.41</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>63551.395983</v>
+        <v>63551.395983000002</v>
       </c>
       <c r="CD16" s="1">
-        <v>17.653166</v>
+        <v>17.653165999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>4283.320000</v>
+        <v>4283.32</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5874.920000</v>
+        <v>-5874.92</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>63379.935456</v>
+        <v>63379.935455999999</v>
       </c>
       <c r="B17" s="1">
-        <v>17.605538</v>
+        <v>17.605537999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1243.200000</v>
+        <v>1243.2</v>
       </c>
       <c r="D17" s="1">
-        <v>-311.180000</v>
+        <v>-311.18</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>63389.881235</v>
+        <v>63389.881235000001</v>
       </c>
       <c r="G17" s="1">
-        <v>17.608300</v>
+        <v>17.6083</v>
       </c>
       <c r="H17" s="1">
-        <v>1269.810000</v>
+        <v>1269.81</v>
       </c>
       <c r="I17" s="1">
-        <v>-268.413000</v>
+        <v>-268.41300000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>63400.101335</v>
+        <v>63400.101334999999</v>
       </c>
       <c r="L17" s="1">
-        <v>17.611139</v>
+        <v>17.611139000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1306.000000</v>
+        <v>1306</v>
       </c>
       <c r="N17" s="1">
-        <v>-206.068000</v>
+        <v>-206.06800000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>63410.337241</v>
+        <v>63410.337241000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>17.613983</v>
+        <v>17.613983000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1318.380000</v>
+        <v>1318.38</v>
       </c>
       <c r="S17" s="1">
-        <v>-187.604000</v>
+        <v>-187.60400000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>63420.504261</v>
+        <v>63420.504261000002</v>
       </c>
       <c r="V17" s="1">
-        <v>17.616807</v>
+        <v>17.616807000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1332.160000</v>
+        <v>1332.16</v>
       </c>
       <c r="X17" s="1">
-        <v>-173.600000</v>
+        <v>-173.6</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>63431.083933</v>
+        <v>63431.083933000002</v>
       </c>
       <c r="AA17" s="1">
-        <v>17.619746</v>
+        <v>17.619745999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1350.030000</v>
+        <v>1350.03</v>
       </c>
       <c r="AC17" s="1">
-        <v>-171.200000</v>
+        <v>-171.2</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>63441.564863</v>
@@ -4426,662 +4842,662 @@
         <v>17.622657</v>
       </c>
       <c r="AG17" s="1">
-        <v>1363.190000</v>
+        <v>1363.19</v>
       </c>
       <c r="AH17" s="1">
-        <v>-180.424000</v>
+        <v>-180.42400000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>63452.132662</v>
+        <v>63452.132662000004</v>
       </c>
       <c r="AK17" s="1">
-        <v>17.625592</v>
+        <v>17.625592000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1384.520000</v>
+        <v>1384.52</v>
       </c>
       <c r="AM17" s="1">
-        <v>-210.175000</v>
+        <v>-210.17500000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>63462.977651</v>
+        <v>63462.977651000001</v>
       </c>
       <c r="AP17" s="1">
         <v>17.628605</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1406.830000</v>
+        <v>1406.83</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.548000</v>
+        <v>-253.548</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>63474.046374</v>
+        <v>63474.046373999998</v>
       </c>
       <c r="AU17" s="1">
-        <v>17.631680</v>
+        <v>17.631679999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1432.090000</v>
+        <v>1432.09</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.897000</v>
+        <v>-312.89699999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>63485.414677</v>
+        <v>63485.414677000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>17.634837</v>
+        <v>17.634837000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1451.900000</v>
+        <v>1451.9</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.410000</v>
+        <v>-364.41</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>63496.209607</v>
+        <v>63496.209606999997</v>
       </c>
       <c r="BE17" s="1">
         <v>17.637836</v>
       </c>
       <c r="BF17" s="1">
-        <v>1538.880000</v>
+        <v>1538.88</v>
       </c>
       <c r="BG17" s="1">
-        <v>-609.403000</v>
+        <v>-609.40300000000002</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>63507.315034</v>
+        <v>63507.315033999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>17.640921</v>
+        <v>17.640920999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1695.230000</v>
+        <v>1695.23</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1047.450000</v>
+        <v>-1047.45</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>63518.012778</v>
+        <v>63518.012777999997</v>
       </c>
       <c r="BO17" s="1">
-        <v>17.643892</v>
+        <v>17.643892000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1992.010000</v>
+        <v>1992.01</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1803.600000</v>
+        <v>-1803.6</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>63528.606338</v>
+        <v>63528.606337999998</v>
       </c>
       <c r="BT17" s="1">
-        <v>17.646835</v>
+        <v>17.646834999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>2379.630000</v>
+        <v>2379.63</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2670.910000</v>
+        <v>-2670.91</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>63539.553539</v>
       </c>
       <c r="BY17" s="1">
-        <v>17.649876</v>
+        <v>17.649875999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2865.700000</v>
+        <v>2865.7</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3615.760000</v>
+        <v>-3615.76</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>63551.935169</v>
+        <v>63551.935168999997</v>
       </c>
       <c r="CD17" s="1">
-        <v>17.653315</v>
+        <v>17.653314999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>4268.650000</v>
+        <v>4268.6499999999996</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5866.100000</v>
+        <v>-5866.1</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>63380.078802</v>
+        <v>63380.078802000004</v>
       </c>
       <c r="B18" s="1">
         <v>17.605577</v>
       </c>
       <c r="C18" s="1">
-        <v>1243.240000</v>
+        <v>1243.24</v>
       </c>
       <c r="D18" s="1">
-        <v>-310.957000</v>
+        <v>-310.95699999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>63390.227939</v>
+        <v>63390.227938999997</v>
       </c>
       <c r="G18" s="1">
         <v>17.608397</v>
       </c>
       <c r="H18" s="1">
-        <v>1268.430000</v>
+        <v>1268.43</v>
       </c>
       <c r="I18" s="1">
-        <v>-268.650000</v>
+        <v>-268.64999999999998</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>63400.444567</v>
+        <v>63400.444566999999</v>
       </c>
       <c r="L18" s="1">
-        <v>17.611235</v>
+        <v>17.611235000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1306.310000</v>
+        <v>1306.31</v>
       </c>
       <c r="N18" s="1">
-        <v>-206.203000</v>
+        <v>-206.203</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>63410.687452</v>
+        <v>63410.687451999998</v>
       </c>
       <c r="Q18" s="1">
-        <v>17.614080</v>
+        <v>17.614080000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1318.470000</v>
+        <v>1318.47</v>
       </c>
       <c r="S18" s="1">
-        <v>-187.593000</v>
+        <v>-187.59299999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>63421.188745</v>
+        <v>63421.188744999999</v>
       </c>
       <c r="V18" s="1">
-        <v>17.616997</v>
+        <v>17.616997000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1332.040000</v>
+        <v>1332.04</v>
       </c>
       <c r="X18" s="1">
-        <v>-173.721000</v>
+        <v>-173.721</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>63431.430109</v>
+        <v>63431.430109000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>17.619842</v>
+        <v>17.619841999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>1349.930000</v>
+        <v>1349.93</v>
       </c>
       <c r="AC18" s="1">
-        <v>-171.113000</v>
+        <v>-171.113</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>63441.910765</v>
+        <v>63441.910765000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>17.622753</v>
+        <v>17.622752999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1363.290000</v>
+        <v>1363.29</v>
       </c>
       <c r="AH18" s="1">
-        <v>-180.843000</v>
+        <v>-180.84299999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>63452.483296</v>
+        <v>63452.483295999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>17.625690</v>
+        <v>17.625689999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1384.560000</v>
+        <v>1384.56</v>
       </c>
       <c r="AM18" s="1">
-        <v>-210.151000</v>
+        <v>-210.15100000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>63463.620963</v>
+        <v>63463.620963000001</v>
       </c>
       <c r="AP18" s="1">
         <v>17.628784</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1406.820000</v>
+        <v>1406.82</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.532000</v>
+        <v>-253.53200000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>63474.730892</v>
       </c>
       <c r="AU18" s="1">
-        <v>17.631870</v>
+        <v>17.631869999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1432.100000</v>
+        <v>1432.1</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.858000</v>
+        <v>-312.858</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>63485.819414</v>
+        <v>63485.819413999998</v>
       </c>
       <c r="AZ18" s="1">
-        <v>17.634950</v>
+        <v>17.63495</v>
       </c>
       <c r="BA18" s="1">
-        <v>1451.880000</v>
+        <v>1451.88</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.417000</v>
+        <v>-364.41699999999997</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>63496.482407</v>
+        <v>63496.482407000003</v>
       </c>
       <c r="BE18" s="1">
         <v>17.637912</v>
       </c>
       <c r="BF18" s="1">
-        <v>1538.850000</v>
+        <v>1538.85</v>
       </c>
       <c r="BG18" s="1">
-        <v>-609.388000</v>
+        <v>-609.38800000000003</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>63507.689017</v>
+        <v>63507.689016999997</v>
       </c>
       <c r="BJ18" s="1">
-        <v>17.641025</v>
+        <v>17.641024999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1695.200000</v>
+        <v>1695.2</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1047.470000</v>
+        <v>-1047.47</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>63518.409547</v>
+        <v>63518.409547000003</v>
       </c>
       <c r="BO18" s="1">
-        <v>17.644003</v>
+        <v>17.644003000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1991.920000</v>
+        <v>1991.92</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1803.520000</v>
+        <v>-1803.52</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>63529.016987</v>
+        <v>63529.016987000003</v>
       </c>
       <c r="BT18" s="1">
-        <v>17.646949</v>
+        <v>17.646948999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>2379.740000</v>
+        <v>2379.7399999999998</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2670.950000</v>
+        <v>-2670.95</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>63539.980557</v>
+        <v>63539.980557000003</v>
       </c>
       <c r="BY18" s="1">
-        <v>17.649995</v>
+        <v>17.649995000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2864.570000</v>
+        <v>2864.57</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3615.700000</v>
+        <v>-3615.7</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>63552.476268</v>
+        <v>63552.476267999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>17.653466</v>
+        <v>17.653466000000002</v>
       </c>
       <c r="CE18" s="1">
-        <v>4274.250000</v>
+        <v>4274.25</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5883.670000</v>
+        <v>-5883.67</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>63380.420080</v>
+        <v>63380.420080000004</v>
       </c>
       <c r="B19" s="1">
-        <v>17.605672</v>
+        <v>17.605671999999998</v>
       </c>
       <c r="C19" s="1">
-        <v>1243.340000</v>
+        <v>1243.3399999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-310.901000</v>
+        <v>-310.90100000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>63390.571170</v>
+        <v>63390.571170000003</v>
       </c>
       <c r="G19" s="1">
-        <v>17.608492</v>
+        <v>17.608491999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>1270.090000</v>
+        <v>1270.0899999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-269.539000</v>
+        <v>-269.53899999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>63401.137975</v>
+        <v>63401.137974999998</v>
       </c>
       <c r="L19" s="1">
-        <v>17.611427</v>
+        <v>17.611426999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1305.960000</v>
+        <v>1305.96</v>
       </c>
       <c r="N19" s="1">
-        <v>-206.043000</v>
+        <v>-206.04300000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>63411.381817</v>
+        <v>63411.381817000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>17.614273</v>
+        <v>17.614273000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1318.580000</v>
+        <v>1318.58</v>
       </c>
       <c r="S19" s="1">
-        <v>-187.575000</v>
+        <v>-187.57499999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>63421.531947</v>
+        <v>63421.531947000003</v>
       </c>
       <c r="V19" s="1">
         <v>17.617092</v>
       </c>
       <c r="W19" s="1">
-        <v>1331.970000</v>
+        <v>1331.97</v>
       </c>
       <c r="X19" s="1">
-        <v>-173.852000</v>
+        <v>-173.852</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>63431.781276</v>
+        <v>63431.781276000002</v>
       </c>
       <c r="AA19" s="1">
-        <v>17.619939</v>
+        <v>17.619938999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1349.870000</v>
+        <v>1349.87</v>
       </c>
       <c r="AC19" s="1">
-        <v>-171.080000</v>
+        <v>-171.08</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>63442.253808</v>
+        <v>63442.253808000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>17.622848</v>
+        <v>17.622848000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1363.290000</v>
+        <v>1363.29</v>
       </c>
       <c r="AH19" s="1">
-        <v>-180.645000</v>
+        <v>-180.64500000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>63453.140001</v>
       </c>
       <c r="AK19" s="1">
-        <v>17.625872</v>
+        <v>17.625872000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1384.510000</v>
+        <v>1384.51</v>
       </c>
       <c r="AM19" s="1">
-        <v>-210.159000</v>
+        <v>-210.15899999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>63464.060449</v>
+        <v>63464.060448999997</v>
       </c>
       <c r="AP19" s="1">
-        <v>17.628906</v>
+        <v>17.628906000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1406.840000</v>
+        <v>1406.84</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.550000</v>
+        <v>-253.55</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>63475.175303</v>
+        <v>63475.175303000004</v>
       </c>
       <c r="AU19" s="1">
-        <v>17.631993</v>
+        <v>17.631993000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1432.090000</v>
+        <v>1432.09</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.878000</v>
+        <v>-312.87799999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>63486.206331</v>
+        <v>63486.206331000001</v>
       </c>
       <c r="AZ19" s="1">
         <v>17.635057</v>
       </c>
       <c r="BA19" s="1">
-        <v>1451.900000</v>
+        <v>1451.9</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.404000</v>
+        <v>-364.404</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>63496.845974</v>
+        <v>63496.845974000003</v>
       </c>
       <c r="BE19" s="1">
-        <v>17.638013</v>
+        <v>17.638013000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1538.860000</v>
+        <v>1538.86</v>
       </c>
       <c r="BG19" s="1">
-        <v>-609.377000</v>
+        <v>-609.37699999999995</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>63508.064524</v>
+        <v>63508.064524000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>17.641129</v>
+        <v>17.641128999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1695.240000</v>
+        <v>1695.24</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1047.450000</v>
+        <v>-1047.45</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>63518.841066</v>
+        <v>63518.841066000001</v>
       </c>
       <c r="BO19" s="1">
         <v>17.644123</v>
       </c>
       <c r="BP19" s="1">
-        <v>1991.860000</v>
+        <v>1991.86</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1803.580000</v>
+        <v>-1803.58</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>63529.501579</v>
+        <v>63529.501579000003</v>
       </c>
       <c r="BT19" s="1">
         <v>17.647084</v>
       </c>
       <c r="BU19" s="1">
-        <v>2379.790000</v>
+        <v>2379.79</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2670.720000</v>
+        <v>-2670.72</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>63540.399180</v>
+        <v>63540.39918</v>
       </c>
       <c r="BY19" s="1">
-        <v>17.650111</v>
+        <v>17.650110999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2865.200000</v>
+        <v>2865.2</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3616.050000</v>
+        <v>-3616.05</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>63553.015948</v>
@@ -5090,422 +5506,422 @@
         <v>17.653616</v>
       </c>
       <c r="CE19" s="1">
-        <v>4281.360000</v>
+        <v>4281.3599999999997</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5863.920000</v>
+        <v>-5863.92</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>63381.102581</v>
+        <v>63381.102580999999</v>
       </c>
       <c r="B20" s="1">
-        <v>17.605862</v>
+        <v>17.605861999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>1243.480000</v>
+        <v>1243.48</v>
       </c>
       <c r="D20" s="1">
-        <v>-311.349000</v>
+        <v>-311.34899999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>63391.262593</v>
+        <v>63391.262592999999</v>
       </c>
       <c r="G20" s="1">
         <v>17.608684</v>
       </c>
       <c r="H20" s="1">
-        <v>1269.740000</v>
+        <v>1269.74</v>
       </c>
       <c r="I20" s="1">
-        <v>-269.267000</v>
+        <v>-269.267</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>63401.484149</v>
+        <v>63401.484149000004</v>
       </c>
       <c r="L20" s="1">
-        <v>17.611523</v>
+        <v>17.611522999999998</v>
       </c>
       <c r="M20" s="1">
-        <v>1306.150000</v>
+        <v>1306.1500000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-205.563000</v>
+        <v>-205.56299999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>63411.730114</v>
+        <v>63411.730113999998</v>
       </c>
       <c r="Q20" s="1">
         <v>17.614369</v>
       </c>
       <c r="R20" s="1">
-        <v>1318.560000</v>
+        <v>1318.56</v>
       </c>
       <c r="S20" s="1">
-        <v>-187.634000</v>
+        <v>-187.63399999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>63421.875209</v>
+        <v>63421.875208999998</v>
       </c>
       <c r="V20" s="1">
-        <v>17.617188</v>
+        <v>17.617187999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1332.000000</v>
+        <v>1332</v>
       </c>
       <c r="X20" s="1">
-        <v>-173.589000</v>
+        <v>-173.589</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>63432.438971</v>
+        <v>63432.438971000003</v>
       </c>
       <c r="AA20" s="1">
-        <v>17.620122</v>
+        <v>17.620121999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1349.910000</v>
+        <v>1349.91</v>
       </c>
       <c r="AC20" s="1">
-        <v>-171.136000</v>
+        <v>-171.136</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>63442.908559</v>
+        <v>63442.908559000003</v>
       </c>
       <c r="AF20" s="1">
-        <v>17.623030</v>
+        <v>17.62303</v>
       </c>
       <c r="AG20" s="1">
-        <v>1363.160000</v>
+        <v>1363.16</v>
       </c>
       <c r="AH20" s="1">
-        <v>-180.758000</v>
+        <v>-180.75800000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>63453.531344</v>
+        <v>63453.531344000003</v>
       </c>
       <c r="AK20" s="1">
-        <v>17.625981</v>
+        <v>17.625980999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1384.520000</v>
+        <v>1384.52</v>
       </c>
       <c r="AM20" s="1">
-        <v>-210.154000</v>
+        <v>-210.154</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>63464.420017</v>
+        <v>63464.420016999997</v>
       </c>
       <c r="AP20" s="1">
         <v>17.629006</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1406.820000</v>
+        <v>1406.82</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.583000</v>
+        <v>-253.583</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>63475.539330</v>
+        <v>63475.53933</v>
       </c>
       <c r="AU20" s="1">
-        <v>17.632094</v>
+        <v>17.632093999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1432.070000</v>
+        <v>1432.07</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.890000</v>
+        <v>-312.89</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>63486.566387</v>
+        <v>63486.566386999999</v>
       </c>
       <c r="AZ20" s="1">
         <v>17.635157</v>
       </c>
       <c r="BA20" s="1">
-        <v>1451.910000</v>
+        <v>1451.91</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.402000</v>
+        <v>-364.40199999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>63497.268578</v>
+        <v>63497.268578000003</v>
       </c>
       <c r="BE20" s="1">
-        <v>17.638130</v>
+        <v>17.63813</v>
       </c>
       <c r="BF20" s="1">
-        <v>1538.890000</v>
+        <v>1538.89</v>
       </c>
       <c r="BG20" s="1">
-        <v>-609.403000</v>
+        <v>-609.40300000000002</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>63508.484103</v>
+        <v>63508.484103000003</v>
       </c>
       <c r="BJ20" s="1">
-        <v>17.641246</v>
+        <v>17.641245999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1695.220000</v>
+        <v>1695.22</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1047.450000</v>
+        <v>-1047.45</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>63519.225499</v>
       </c>
       <c r="BO20" s="1">
-        <v>17.644229</v>
+        <v>17.644228999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1992.090000</v>
+        <v>1992.09</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1803.580000</v>
+        <v>-1803.58</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>63529.876554</v>
+        <v>63529.876554000002</v>
       </c>
       <c r="BT20" s="1">
         <v>17.647188</v>
       </c>
       <c r="BU20" s="1">
-        <v>2379.220000</v>
+        <v>2379.2199999999998</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2670.610000</v>
+        <v>-2670.61</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>63540.818677</v>
+        <v>63540.818677000003</v>
       </c>
       <c r="BY20" s="1">
-        <v>17.650227</v>
+        <v>17.650227000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2864.570000</v>
+        <v>2864.57</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3616.440000</v>
+        <v>-3616.44</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>63553.553580</v>
+        <v>63553.55358</v>
       </c>
       <c r="CD20" s="1">
         <v>17.653765</v>
       </c>
       <c r="CE20" s="1">
-        <v>4266.170000</v>
+        <v>4266.17</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5882.170000</v>
+        <v>-5882.17</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>63381.445278</v>
+        <v>63381.445277999999</v>
       </c>
       <c r="B21" s="1">
         <v>17.605957</v>
       </c>
       <c r="C21" s="1">
-        <v>1243.520000</v>
+        <v>1243.52</v>
       </c>
       <c r="D21" s="1">
-        <v>-310.858000</v>
+        <v>-310.858</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>63391.606321</v>
+        <v>63391.606320999999</v>
       </c>
       <c r="G21" s="1">
-        <v>17.608780</v>
+        <v>17.608779999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>1269.790000</v>
+        <v>1269.79</v>
       </c>
       <c r="I21" s="1">
-        <v>-268.339000</v>
+        <v>-268.339</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>63401.829895</v>
+        <v>63401.829895000003</v>
       </c>
       <c r="L21" s="1">
-        <v>17.611619</v>
+        <v>17.611619000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1306.200000</v>
+        <v>1306.2</v>
       </c>
       <c r="N21" s="1">
-        <v>-205.895000</v>
+        <v>-205.89500000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>63412.085142</v>
+        <v>63412.085142000004</v>
       </c>
       <c r="Q21" s="1">
-        <v>17.614468</v>
+        <v>17.614467999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1318.520000</v>
+        <v>1318.52</v>
       </c>
       <c r="S21" s="1">
-        <v>-187.680000</v>
+        <v>-187.68</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>63422.531916</v>
       </c>
       <c r="V21" s="1">
-        <v>17.617370</v>
+        <v>17.617370000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1332.110000</v>
+        <v>1332.11</v>
       </c>
       <c r="X21" s="1">
-        <v>-173.722000</v>
+        <v>-173.72200000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>63432.823901</v>
+        <v>63432.823901000003</v>
       </c>
       <c r="AA21" s="1">
-        <v>17.620229</v>
+        <v>17.620228999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>1350.000000</v>
+        <v>1350</v>
       </c>
       <c r="AC21" s="1">
-        <v>-171.203000</v>
+        <v>-171.203</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>63443.282013</v>
+        <v>63443.282012999996</v>
       </c>
       <c r="AF21" s="1">
         <v>17.623134</v>
       </c>
       <c r="AG21" s="1">
-        <v>1363.370000</v>
+        <v>1363.37</v>
       </c>
       <c r="AH21" s="1">
-        <v>-180.681000</v>
+        <v>-180.68100000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>63453.878090</v>
+        <v>63453.878089999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>17.626077</v>
+        <v>17.626076999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1384.530000</v>
+        <v>1384.53</v>
       </c>
       <c r="AM21" s="1">
-        <v>-210.170000</v>
+        <v>-210.17</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>63464.780635</v>
+        <v>63464.780635000003</v>
       </c>
       <c r="AP21" s="1">
         <v>17.629106</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1406.830000</v>
+        <v>1406.83</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.570000</v>
+        <v>-253.57</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>63475.901906</v>
+        <v>63475.901905999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>17.632195</v>
+        <v>17.632194999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1432.060000</v>
+        <v>1432.06</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.882000</v>
+        <v>-312.88200000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>63486.990995</v>
@@ -5514,58 +5930,58 @@
         <v>17.635275</v>
       </c>
       <c r="BA21" s="1">
-        <v>1451.900000</v>
+        <v>1451.9</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.394000</v>
+        <v>-364.39400000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>63497.566662</v>
+        <v>63497.566661999997</v>
       </c>
       <c r="BE21" s="1">
         <v>17.638213</v>
       </c>
       <c r="BF21" s="1">
-        <v>1538.830000</v>
+        <v>1538.83</v>
       </c>
       <c r="BG21" s="1">
-        <v>-609.397000</v>
+        <v>-609.39700000000005</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>63508.835768</v>
+        <v>63508.835767999997</v>
       </c>
       <c r="BJ21" s="1">
-        <v>17.641343</v>
+        <v>17.641342999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1695.150000</v>
+        <v>1695.15</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1047.340000</v>
+        <v>-1047.3399999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>63519.645080</v>
+        <v>63519.645080000002</v>
       </c>
       <c r="BO21" s="1">
-        <v>17.644346</v>
+        <v>17.644345999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1991.870000</v>
+        <v>1991.87</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1803.600000</v>
+        <v>-1803.6</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>63530.287268</v>
@@ -5574,285 +5990,285 @@
         <v>17.647302</v>
       </c>
       <c r="BU21" s="1">
-        <v>2379.530000</v>
+        <v>2379.5300000000002</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2670.780000</v>
+        <v>-2670.78</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>63541.266685</v>
+        <v>63541.266685000002</v>
       </c>
       <c r="BY21" s="1">
-        <v>17.650352</v>
+        <v>17.650352000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2865.250000</v>
+        <v>2865.25</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3616.460000</v>
+        <v>-3616.46</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>63554.096730</v>
+        <v>63554.096729999997</v>
       </c>
       <c r="CD21" s="1">
-        <v>17.653916</v>
+        <v>17.653915999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>4283.140000</v>
+        <v>4283.1400000000003</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5874.440000</v>
+        <v>-5874.44</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>63381.786526</v>
+        <v>63381.786526000004</v>
       </c>
       <c r="B22" s="1">
-        <v>17.606052</v>
+        <v>17.606051999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>1243.180000</v>
+        <v>1243.18</v>
       </c>
       <c r="D22" s="1">
-        <v>-310.971000</v>
+        <v>-310.971</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>63391.951537</v>
+        <v>63391.951537000001</v>
       </c>
       <c r="G22" s="1">
-        <v>17.608875</v>
+        <v>17.608875000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1268.780000</v>
+        <v>1268.78</v>
       </c>
       <c r="I22" s="1">
-        <v>-269.418000</v>
+        <v>-269.41800000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>63402.489574</v>
+        <v>63402.489573999999</v>
       </c>
       <c r="L22" s="1">
-        <v>17.611803</v>
+        <v>17.611802999999998</v>
       </c>
       <c r="M22" s="1">
-        <v>1306.250000</v>
+        <v>1306.25</v>
       </c>
       <c r="N22" s="1">
-        <v>-206.013000</v>
+        <v>-206.01300000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>63412.738869</v>
+        <v>63412.738869000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>17.614650</v>
+        <v>17.614650000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1318.430000</v>
+        <v>1318.43</v>
       </c>
       <c r="S22" s="1">
-        <v>-187.597000</v>
+        <v>-187.59700000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>63422.903912</v>
+        <v>63422.903912000002</v>
       </c>
       <c r="V22" s="1">
         <v>17.617473</v>
       </c>
       <c r="W22" s="1">
-        <v>1332.120000</v>
+        <v>1332.12</v>
       </c>
       <c r="X22" s="1">
-        <v>-173.678000</v>
+        <v>-173.678</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>63433.173560</v>
+        <v>63433.173560000003</v>
       </c>
       <c r="AA22" s="1">
-        <v>17.620326</v>
+        <v>17.620325999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1350.000000</v>
+        <v>1350</v>
       </c>
       <c r="AC22" s="1">
-        <v>-171.169000</v>
+        <v>-171.16900000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>63443.628221</v>
+        <v>63443.628220999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>17.623230</v>
+        <v>17.62323</v>
       </c>
       <c r="AG22" s="1">
-        <v>1363.280000</v>
+        <v>1363.28</v>
       </c>
       <c r="AH22" s="1">
-        <v>-180.590000</v>
+        <v>-180.59</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>63454.225751</v>
+        <v>63454.225750999998</v>
       </c>
       <c r="AK22" s="1">
-        <v>17.626174</v>
+        <v>17.626173999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1384.510000</v>
+        <v>1384.51</v>
       </c>
       <c r="AM22" s="1">
-        <v>-210.185000</v>
+        <v>-210.185</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>63465.195760</v>
+        <v>63465.195760000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>17.629221</v>
+        <v>17.629221000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1406.870000</v>
+        <v>1406.87</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.518000</v>
+        <v>-253.518</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>63476.324497</v>
+        <v>63476.324497000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>17.632312</v>
+        <v>17.632311999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1432.100000</v>
+        <v>1432.1</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.896000</v>
+        <v>-312.89600000000002</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>63487.284596</v>
+        <v>63487.284595999998</v>
       </c>
       <c r="AZ22" s="1">
-        <v>17.635357</v>
+        <v>17.635356999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1451.920000</v>
+        <v>1451.92</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.345000</v>
+        <v>-364.34500000000003</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>63497.926756</v>
+        <v>63497.926756000001</v>
       </c>
       <c r="BE22" s="1">
         <v>17.638313</v>
       </c>
       <c r="BF22" s="1">
-        <v>1538.850000</v>
+        <v>1538.85</v>
       </c>
       <c r="BG22" s="1">
-        <v>-609.393000</v>
+        <v>-609.39300000000003</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>63509.211734</v>
+        <v>63509.211733999997</v>
       </c>
       <c r="BJ22" s="1">
         <v>17.641448</v>
       </c>
       <c r="BK22" s="1">
-        <v>1695.240000</v>
+        <v>1695.24</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1047.380000</v>
+        <v>-1047.3800000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>63520.042871</v>
+        <v>63520.042870999998</v>
       </c>
       <c r="BO22" s="1">
-        <v>17.644456</v>
+        <v>17.644456000000002</v>
       </c>
       <c r="BP22" s="1">
-        <v>1992.000000</v>
+        <v>1992</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1803.450000</v>
+        <v>-1803.45</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>63530.718762</v>
+        <v>63530.718761999997</v>
       </c>
       <c r="BT22" s="1">
-        <v>17.647422</v>
+        <v>17.647421999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>2379.070000</v>
+        <v>2379.0700000000002</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2670.530000</v>
+        <v>-2670.53</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>63541.687787</v>
+        <v>63541.687787000003</v>
       </c>
       <c r="BY22" s="1">
-        <v>17.650469</v>
+        <v>17.650469000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2864.620000</v>
+        <v>2864.62</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3615.400000</v>
+        <v>-3615.4</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>63554.636843</v>
@@ -5861,604 +6277,604 @@
         <v>17.654066</v>
       </c>
       <c r="CE22" s="1">
-        <v>4267.890000</v>
+        <v>4267.8900000000003</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5866.030000</v>
+        <v>-5866.03</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>63382.441246</v>
+        <v>63382.441246000002</v>
       </c>
       <c r="B23" s="1">
-        <v>17.606234</v>
+        <v>17.606234000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1243.080000</v>
+        <v>1243.08</v>
       </c>
       <c r="D23" s="1">
-        <v>-310.529000</v>
+        <v>-310.529</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>63392.616176</v>
+        <v>63392.616176000003</v>
       </c>
       <c r="G23" s="1">
-        <v>17.609060</v>
+        <v>17.609059999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1269.840000</v>
+        <v>1269.8399999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-269.066000</v>
+        <v>-269.06599999999997</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>63402.866994</v>
+        <v>63402.866994000004</v>
       </c>
       <c r="L23" s="1">
-        <v>17.611907</v>
+        <v>17.611906999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1306.150000</v>
+        <v>1306.1500000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-206.095000</v>
+        <v>-206.095</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>63413.148564</v>
+        <v>63413.148564000003</v>
       </c>
       <c r="Q23" s="1">
         <v>17.614763</v>
       </c>
       <c r="R23" s="1">
-        <v>1318.470000</v>
+        <v>1318.47</v>
       </c>
       <c r="S23" s="1">
-        <v>-187.552000</v>
+        <v>-187.55199999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>63423.250585</v>
+        <v>63423.250585000002</v>
       </c>
       <c r="V23" s="1">
-        <v>17.617570</v>
+        <v>17.617570000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1332.270000</v>
+        <v>1332.27</v>
       </c>
       <c r="X23" s="1">
-        <v>-173.848000</v>
+        <v>-173.84800000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>63433.522234</v>
+        <v>63433.522233999996</v>
       </c>
       <c r="AA23" s="1">
-        <v>17.620423</v>
+        <v>17.620422999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1350.000000</v>
+        <v>1350</v>
       </c>
       <c r="AC23" s="1">
-        <v>-171.122000</v>
+        <v>-171.12200000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>63443.977404</v>
+        <v>63443.977403999997</v>
       </c>
       <c r="AF23" s="1">
         <v>17.623327</v>
       </c>
       <c r="AG23" s="1">
-        <v>1363.110000</v>
+        <v>1363.11</v>
       </c>
       <c r="AH23" s="1">
-        <v>-180.623000</v>
+        <v>-180.62299999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>63454.643056</v>
+        <v>63454.643056000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>17.626290</v>
+        <v>17.626290000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1384.510000</v>
+        <v>1384.51</v>
       </c>
       <c r="AM23" s="1">
-        <v>-210.168000</v>
+        <v>-210.16800000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>63465.500305</v>
+        <v>63465.500305000001</v>
       </c>
       <c r="AP23" s="1">
         <v>17.629306</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1406.810000</v>
+        <v>1406.81</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.585000</v>
+        <v>-253.58500000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>63476.632049</v>
       </c>
       <c r="AU23" s="1">
-        <v>17.632398</v>
+        <v>17.632397999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>1432.090000</v>
+        <v>1432.09</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.867000</v>
+        <v>-312.86700000000002</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>63487.643700</v>
+        <v>63487.643700000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>17.635457</v>
+        <v>17.635456999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1451.910000</v>
+        <v>1451.91</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.363000</v>
+        <v>-364.363</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>63498.289064</v>
+        <v>63498.289063999997</v>
       </c>
       <c r="BE23" s="1">
-        <v>17.638414</v>
+        <v>17.638414000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1538.850000</v>
+        <v>1538.85</v>
       </c>
       <c r="BG23" s="1">
-        <v>-609.390000</v>
+        <v>-609.39</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>63509.589685</v>
+        <v>63509.589684999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>17.641553</v>
+        <v>17.641552999999998</v>
       </c>
       <c r="BK23" s="1">
-        <v>1695.250000</v>
+        <v>1695.25</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1047.360000</v>
+        <v>-1047.3599999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>63520.467979</v>
+        <v>63520.467979000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>17.644574</v>
+        <v>17.644573999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1991.930000</v>
+        <v>1991.93</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1803.480000</v>
+        <v>-1803.48</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>63531.145818</v>
+        <v>63531.145817999997</v>
       </c>
       <c r="BT23" s="1">
         <v>17.647541</v>
       </c>
       <c r="BU23" s="1">
-        <v>2379.390000</v>
+        <v>2379.39</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2670.650000</v>
+        <v>-2670.65</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>63542.111371</v>
+        <v>63542.111370999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>17.650586</v>
+        <v>17.650586000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2865.130000</v>
+        <v>2865.13</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3614.950000</v>
+        <v>-3614.95</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>63555.175003</v>
+        <v>63555.175002999997</v>
       </c>
       <c r="CD23" s="1">
-        <v>17.654215</v>
+        <v>17.654215000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>4274.460000</v>
+        <v>4274.46</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5883.100000</v>
+        <v>-5883.1</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>63382.812253</v>
+        <v>63382.812252999996</v>
       </c>
       <c r="B24" s="1">
         <v>17.606337</v>
       </c>
       <c r="C24" s="1">
-        <v>1243.280000</v>
+        <v>1243.28</v>
       </c>
       <c r="D24" s="1">
-        <v>-311.063000</v>
+        <v>-311.06299999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>63392.988671</v>
+        <v>63392.988670999999</v>
       </c>
       <c r="G24" s="1">
         <v>17.609164</v>
       </c>
       <c r="H24" s="1">
-        <v>1270.330000</v>
+        <v>1270.33</v>
       </c>
       <c r="I24" s="1">
-        <v>-268.571000</v>
+        <v>-268.57100000000003</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>63403.212246</v>
+        <v>63403.212246000003</v>
       </c>
       <c r="L24" s="1">
-        <v>17.612003</v>
+        <v>17.612003000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1306.330000</v>
+        <v>1306.33</v>
       </c>
       <c r="N24" s="1">
-        <v>-206.075000</v>
+        <v>-206.07499999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>63413.492292</v>
+        <v>63413.492292000003</v>
       </c>
       <c r="Q24" s="1">
-        <v>17.614859</v>
+        <v>17.614858999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1318.510000</v>
+        <v>1318.51</v>
       </c>
       <c r="S24" s="1">
-        <v>-187.551000</v>
+        <v>-187.55099999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>63423.597320</v>
+        <v>63423.597320000001</v>
       </c>
       <c r="V24" s="1">
         <v>17.617666</v>
       </c>
       <c r="W24" s="1">
-        <v>1332.140000</v>
+        <v>1332.14</v>
       </c>
       <c r="X24" s="1">
-        <v>-173.762000</v>
+        <v>-173.762</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>63433.942347</v>
+        <v>63433.942346999997</v>
       </c>
       <c r="AA24" s="1">
-        <v>17.620540</v>
+        <v>17.620539999999998</v>
       </c>
       <c r="AB24" s="1">
-        <v>1349.650000</v>
+        <v>1349.65</v>
       </c>
       <c r="AC24" s="1">
-        <v>-171.582000</v>
+        <v>-171.58199999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>63444.398048</v>
+        <v>63444.398048000003</v>
       </c>
       <c r="AF24" s="1">
-        <v>17.623444</v>
+        <v>17.623443999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1363.220000</v>
+        <v>1363.22</v>
       </c>
       <c r="AH24" s="1">
-        <v>-180.535000</v>
+        <v>-180.535</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>63454.934029</v>
+        <v>63454.934028999996</v>
       </c>
       <c r="AK24" s="1">
-        <v>17.626371</v>
+        <v>17.626370999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1384.490000</v>
+        <v>1384.49</v>
       </c>
       <c r="AM24" s="1">
-        <v>-210.171000</v>
+        <v>-210.17099999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>63465.864398</v>
+        <v>63465.864397999998</v>
       </c>
       <c r="AP24" s="1">
         <v>17.629407</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1406.780000</v>
+        <v>1406.78</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.559000</v>
+        <v>-253.559</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>63476.997570</v>
+        <v>63476.99757</v>
       </c>
       <c r="AU24" s="1">
-        <v>17.632499</v>
+        <v>17.632498999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1432.050000</v>
+        <v>1432.05</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.895000</v>
+        <v>-312.89499999999998</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>63488.003794</v>
+        <v>63488.003793999997</v>
       </c>
       <c r="AZ24" s="1">
-        <v>17.635557</v>
+        <v>17.635556999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1451.890000</v>
+        <v>1451.89</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.389000</v>
+        <v>-364.38900000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>63499.013493</v>
+        <v>63499.013492999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>17.638615</v>
+        <v>17.638615000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1538.860000</v>
+        <v>1538.86</v>
       </c>
       <c r="BG24" s="1">
-        <v>-609.399000</v>
+        <v>-609.399</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>63510.336164</v>
       </c>
       <c r="BJ24" s="1">
-        <v>17.641760</v>
+        <v>17.641760000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1695.180000</v>
+        <v>1695.18</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1047.360000</v>
+        <v>-1047.3599999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>63520.864742</v>
+        <v>63520.864741999998</v>
       </c>
       <c r="BO24" s="1">
-        <v>17.644685</v>
+        <v>17.644684999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1991.900000</v>
+        <v>1991.9</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1803.420000</v>
+        <v>-1803.42</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>63531.560472</v>
+        <v>63531.560471999997</v>
       </c>
       <c r="BT24" s="1">
-        <v>17.647656</v>
+        <v>17.647656000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>2379.210000</v>
+        <v>2379.21</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2670.610000</v>
+        <v>-2670.61</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>63542.555291</v>
+        <v>63542.555290999997</v>
       </c>
       <c r="BY24" s="1">
-        <v>17.650710</v>
+        <v>17.65071</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2864.730000</v>
+        <v>2864.73</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3616.200000</v>
+        <v>-3616.2</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>63556.029609</v>
+        <v>63556.029608999997</v>
       </c>
       <c r="CD24" s="1">
         <v>17.654453</v>
       </c>
       <c r="CE24" s="1">
-        <v>4264.830000</v>
+        <v>4264.83</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5868.980000</v>
+        <v>-5868.98</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>63383.155486</v>
+        <v>63383.155486000003</v>
       </c>
       <c r="B25" s="1">
-        <v>17.606432</v>
+        <v>17.606432000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>1243.130000</v>
+        <v>1243.1300000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-310.955000</v>
+        <v>-310.95499999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>63393.331922</v>
+        <v>63393.331921999998</v>
       </c>
       <c r="G25" s="1">
-        <v>17.609259</v>
+        <v>17.609259000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>1269.570000</v>
+        <v>1269.57</v>
       </c>
       <c r="I25" s="1">
-        <v>-268.461000</v>
+        <v>-268.46100000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>63403.554945</v>
+        <v>63403.554945000003</v>
       </c>
       <c r="L25" s="1">
-        <v>17.612099</v>
+        <v>17.612099000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1306.250000</v>
+        <v>1306.25</v>
       </c>
       <c r="N25" s="1">
-        <v>-205.988000</v>
+        <v>-205.988</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>63413.918881</v>
+        <v>63413.918880999998</v>
       </c>
       <c r="Q25" s="1">
         <v>17.614977</v>
       </c>
       <c r="R25" s="1">
-        <v>1318.520000</v>
+        <v>1318.52</v>
       </c>
       <c r="S25" s="1">
-        <v>-187.620000</v>
+        <v>-187.62</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>63424.021862</v>
+        <v>63424.021862000001</v>
       </c>
       <c r="V25" s="1">
         <v>17.617784</v>
       </c>
       <c r="W25" s="1">
-        <v>1332.150000</v>
+        <v>1332.15</v>
       </c>
       <c r="X25" s="1">
-        <v>-173.627000</v>
+        <v>-173.62700000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>63434.225562</v>
@@ -6467,181 +6883,181 @@
         <v>17.620618</v>
       </c>
       <c r="AB25" s="1">
-        <v>1350.090000</v>
+        <v>1350.09</v>
       </c>
       <c r="AC25" s="1">
-        <v>-171.225000</v>
+        <v>-171.22499999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>63444.679243</v>
+        <v>63444.679242999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>17.623522</v>
+        <v>17.623522000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1363.250000</v>
+        <v>1363.25</v>
       </c>
       <c r="AH25" s="1">
-        <v>-180.627000</v>
+        <v>-180.62700000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>63455.285198</v>
+        <v>63455.285197999998</v>
       </c>
       <c r="AK25" s="1">
-        <v>17.626468</v>
+        <v>17.626467999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1384.520000</v>
+        <v>1384.52</v>
       </c>
       <c r="AM25" s="1">
-        <v>-210.152000</v>
+        <v>-210.15199999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>63466.222021</v>
+        <v>63466.222021000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>17.629506</v>
+        <v>17.629505999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1406.810000</v>
+        <v>1406.81</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.552000</v>
+        <v>-253.55199999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>63477.362166</v>
+        <v>63477.362165999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>17.632601</v>
+        <v>17.632601000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1432.070000</v>
+        <v>1432.07</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.880000</v>
+        <v>-312.88</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>63488.723197</v>
+        <v>63488.723196999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>17.635756</v>
+        <v>17.635756000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1451.900000</v>
+        <v>1451.9</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.359000</v>
+        <v>-364.35899999999998</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>63499.398386</v>
+        <v>63499.398386000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>17.638722</v>
+        <v>17.638722000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1538.890000</v>
+        <v>1538.89</v>
       </c>
       <c r="BG25" s="1">
-        <v>-609.360000</v>
+        <v>-609.36</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>63510.711676</v>
+        <v>63510.711675999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>17.641864</v>
+        <v>17.641864000000002</v>
       </c>
       <c r="BK25" s="1">
-        <v>1695.280000</v>
+        <v>1695.28</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1047.340000</v>
+        <v>-1047.3399999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>63521.283864</v>
+        <v>63521.283863999997</v>
       </c>
       <c r="BO25" s="1">
-        <v>17.644801</v>
+        <v>17.644801000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1991.830000</v>
+        <v>1991.83</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1803.280000</v>
+        <v>-1803.28</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>63532.305463</v>
+        <v>63532.305462999997</v>
       </c>
       <c r="BT25" s="1">
-        <v>17.647863</v>
+        <v>17.647863000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>2379.470000</v>
+        <v>2379.4699999999998</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2670.800000</v>
+        <v>-2670.8</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>63543.301769</v>
+        <v>63543.301768999998</v>
       </c>
       <c r="BY25" s="1">
         <v>17.650917</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2865.010000</v>
+        <v>2865.01</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3616.200000</v>
+        <v>-3616.2</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>63556.253304</v>
+        <v>63556.253303999998</v>
       </c>
       <c r="CD25" s="1">
         <v>17.654515</v>
       </c>
       <c r="CE25" s="1">
-        <v>4264.540000</v>
+        <v>4264.54</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5867.360000</v>
+        <v>-5867.36</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>63383.496733</v>
       </c>
@@ -6649,255 +7065,256 @@
         <v>17.606527</v>
       </c>
       <c r="C26" s="1">
-        <v>1243.210000</v>
+        <v>1243.21</v>
       </c>
       <c r="D26" s="1">
-        <v>-310.758000</v>
+        <v>-310.75799999999998</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>63393.677158</v>
+        <v>63393.677157999999</v>
       </c>
       <c r="G26" s="1">
-        <v>17.609355</v>
+        <v>17.609355000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1269.620000</v>
+        <v>1269.6199999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-268.771000</v>
+        <v>-268.77100000000002</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>63403.988976</v>
+        <v>63403.988976000001</v>
       </c>
       <c r="L26" s="1">
         <v>17.612219</v>
       </c>
       <c r="M26" s="1">
-        <v>1306.170000</v>
+        <v>1306.17</v>
       </c>
       <c r="N26" s="1">
-        <v>-206.087000</v>
+        <v>-206.08699999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>63414.192147</v>
+        <v>63414.192147000002</v>
       </c>
       <c r="Q26" s="1">
         <v>17.615053</v>
       </c>
       <c r="R26" s="1">
-        <v>1318.500000</v>
+        <v>1318.5</v>
       </c>
       <c r="S26" s="1">
-        <v>-187.685000</v>
+        <v>-187.685</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>63424.300648</v>
+        <v>63424.300647999997</v>
       </c>
       <c r="V26" s="1">
-        <v>17.617861</v>
+        <v>17.617861000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1332.350000</v>
+        <v>1332.35</v>
       </c>
       <c r="X26" s="1">
-        <v>-173.771000</v>
+        <v>-173.77099999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>63434.571800</v>
+        <v>63434.571799999998</v>
       </c>
       <c r="AA26" s="1">
         <v>17.620714</v>
       </c>
       <c r="AB26" s="1">
-        <v>1350.000000</v>
+        <v>1350</v>
       </c>
       <c r="AC26" s="1">
-        <v>-171.127000</v>
+        <v>-171.12700000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>63445.022971</v>
+        <v>63445.022970999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>17.623617</v>
+        <v>17.623616999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1363.290000</v>
+        <v>1363.29</v>
       </c>
       <c r="AH26" s="1">
-        <v>-180.623000</v>
+        <v>-180.62299999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>63455.632892</v>
+        <v>63455.632892000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>17.626565</v>
+        <v>17.626564999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1384.530000</v>
+        <v>1384.53</v>
       </c>
       <c r="AM26" s="1">
-        <v>-210.153000</v>
+        <v>-210.15299999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>63466.951143</v>
+        <v>63466.951142999998</v>
       </c>
       <c r="AP26" s="1">
-        <v>17.629709</v>
+        <v>17.629708999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1406.810000</v>
+        <v>1406.81</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.524000</v>
+        <v>-253.524</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>63478.092735</v>
+        <v>63478.092734999998</v>
       </c>
       <c r="AU26" s="1">
         <v>17.632804</v>
       </c>
       <c r="AV26" s="1">
-        <v>1432.100000</v>
+        <v>1432.1</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.868000</v>
+        <v>-312.86799999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>63489.098464</v>
+        <v>63489.098464000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>17.635861</v>
+        <v>17.635860999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>1451.920000</v>
+        <v>1451.92</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.403000</v>
+        <v>-364.40300000000002</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>63499.761459</v>
+        <v>63499.761459000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>17.638823</v>
+        <v>17.638822999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1538.880000</v>
+        <v>1538.88</v>
       </c>
       <c r="BG26" s="1">
-        <v>-609.368000</v>
+        <v>-609.36800000000005</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>63511.092067</v>
+        <v>63511.092066999998</v>
       </c>
       <c r="BJ26" s="1">
-        <v>17.641970</v>
+        <v>17.641970000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1695.220000</v>
+        <v>1695.22</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1047.250000</v>
+        <v>-1047.25</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>63521.991654</v>
+        <v>63521.991653999998</v>
       </c>
       <c r="BO26" s="1">
-        <v>17.644998</v>
+        <v>17.644998000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1991.970000</v>
+        <v>1991.97</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1803.290000</v>
+        <v>-1803.29</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>63532.414583</v>
+        <v>63532.414582999998</v>
       </c>
       <c r="BT26" s="1">
         <v>17.647893</v>
       </c>
       <c r="BU26" s="1">
-        <v>2379.080000</v>
+        <v>2379.08</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2670.500000</v>
+        <v>-2670.5</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>63543.442136</v>
+        <v>63543.442135999998</v>
       </c>
       <c r="BY26" s="1">
-        <v>17.650956</v>
+        <v>17.650956000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2865.520000</v>
+        <v>2865.52</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3615.560000</v>
+        <v>-3615.56</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>63556.773111</v>
+        <v>63556.773111000002</v>
       </c>
       <c r="CD26" s="1">
-        <v>17.654659</v>
+        <v>17.654658999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>4271.010000</v>
+        <v>4271.01</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5882.490000</v>
+        <v>-5882.49</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>